--- a/ZTMM085.XLSX
+++ b/ZTMM085.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="352">
   <si>
     <t>000000004030520401</t>
   </si>
@@ -37,400 +37,934 @@
     <t>1611/DI1611/KONICA7216/BIZHUB 162/BIZHUB 163/BIZHUB 163V/BIZHUB 164/BIZHUB 184/BIZHUB 210/BIZHUB 211/DI1811P/DI2011/KONICA 7218/KONICA 7220/DI2510/DI2510F/DI3010/DI3010F/DI3510/DI3510F</t>
   </si>
   <si>
-    <t>000000004109553001</t>
+    <t>000000009314230021</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>BIZHUB C350/CF2203/BIZHUB C351/BIZHUB C450/BIZHUB C450P/BIZHUB C451/BIZHUB C452/BIZHUB C550/BIZHUB C652/BIZHUB C654</t>
+  </si>
+  <si>
+    <t>20AA15140</t>
+  </si>
+  <si>
+    <t>CABO DE AÇO</t>
+  </si>
+  <si>
+    <t>LT-211/LU-202/LU-202M</t>
+  </si>
+  <si>
+    <t>26NA32870</t>
+  </si>
+  <si>
+    <t>MOLA DE PRESSÃO 2</t>
+  </si>
+  <si>
+    <t>8050/ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 361/BIZHUB 420/BIZHUB 421/BIZHUB 500/BIZHUB 501/BIZHUB PRESS C1070P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRO C1060L/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>50BA40220</t>
+  </si>
+  <si>
+    <t>ROLO</t>
+  </si>
+  <si>
+    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85/LT-211/LU-202/LU-202M/LU-202XL/LU-202XLM/LU-208XL/LU-401/LU-402/LU-403/LU-404/LU-414/MB-511/PB-503/PF-601/PF-602/PF-701</t>
+  </si>
+  <si>
+    <t>55VA77890</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 20 D</t>
+  </si>
+  <si>
+    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85</t>
+  </si>
+  <si>
+    <t>55VA77960</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 14 DENTES</t>
+  </si>
+  <si>
+    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C8000/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85/PF-701/SD-501/SD-506</t>
+  </si>
+  <si>
+    <t>56GA76010</t>
+  </si>
+  <si>
+    <t>SUPORTE DO EIXO 2</t>
+  </si>
+  <si>
+    <t>7085/ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 600/BIZHUB 601/BIZHUB 750/BIZHUB 751/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 920/BIZHUB PRO C1060L/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/FORCE85</t>
+  </si>
+  <si>
+    <t>56UA32210</t>
+  </si>
+  <si>
+    <t>Parafuso</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>56UA32380</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>56UA32740</t>
+  </si>
+  <si>
+    <t>CONTROLE DA CHAPA LATERAL</t>
+  </si>
+  <si>
+    <t>56UA408200</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /A 26T</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>56UA75070</t>
+  </si>
+  <si>
+    <t>ROLAMENTO DE ROLETE</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C6100/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>56UA77440</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 34 D</t>
+  </si>
+  <si>
+    <t>ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>56UA77450</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM B 20/61 D</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>56UA78030</t>
+  </si>
+  <si>
+    <t>CORREIA 534 L</t>
+  </si>
+  <si>
+    <t>65AA30890</t>
+  </si>
+  <si>
+    <t>Funil</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000</t>
+  </si>
+  <si>
+    <t>65AA50320</t>
+  </si>
+  <si>
+    <t>CAME</t>
+  </si>
+  <si>
+    <t>8050/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C8000/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>65AA53651</t>
   </si>
   <si>
     <t>LIMITADOR</t>
   </si>
   <si>
-    <t>8050/ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 601/BIZHUB 751/BIZHUB C226/BIZHUB C227I/BIZHUB C250/BIZHUB C252/BIZHUB C266/BIZHUB C287/BIZHUB C300/BIZHUB C352/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L/BIZHUB PRO C500/BIZHUB PRO C6501/BIZHUB PRO C6501P/DI151/EF-101/EF-104/FS-514/JS-203/JS-502/PK-510/RU-510/SD-506</t>
-  </si>
-  <si>
-    <t>20AA15120</t>
+    <t>8050/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>65AA77380</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM</t>
+  </si>
+  <si>
+    <t>8050/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>A011946200</t>
+  </si>
+  <si>
+    <t>ETIQUETA</t>
+  </si>
+  <si>
+    <t>BIZHUB 282/BIZHUB 283/BIZHUB 287/BIZHUB 36/BIZHUB 362/BIZHUB 363/BIZHUB 367/BIZHUB 42/BIZHUB 423/BIZHUB 654E/BIZHUB 754E/BIZHUB C200/BIZHUB C220/BIZHUB C224/BIZHUB C224E/BIZHUB C226/BIZHUB C25/BIZHUB C253/BIZHUB C258/BIZHUB C266/BIZHUB C280/BIZHUB C284/BIZHUB C284E/BIZHUB C287/BIZHUB C308/BIZHUB C3100P/BIZHUB C3110/BIZHUB C3350/BIZHUB C3351/BIZHUB C35/BIZHUB C353/BIZHUB C35P/BIZHUB C368/BIZHUB C3850/BIZHUB C451/BIZHUB C452/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C550/BIZHUB C554/BIZHUB C554E/BIZHUB C652/BIZHUB C654</t>
+  </si>
+  <si>
+    <t>A03TM50000</t>
+  </si>
+  <si>
+    <t>FOTO REFLETOR</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS C14000/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT 2100/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 654E/BIZHUB 754E/BIZHUB C452/BIZHUB C652/BIZHUB C654/BIZHUB PRESS C1085/BIZHUB PRESS C1100/DF-617/DF-626/EF-101/EF-104</t>
+  </si>
+  <si>
+    <t>A03U725800</t>
+  </si>
+  <si>
+    <t>EIXO</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>A03U808700</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /G 45 DENTES</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C8000/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>A03U808811</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /H 35 DENTES</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Descont. perm. venda</t>
+  </si>
+  <si>
+    <t>A03U808900</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /I 26 DENTES 79 DENTES</t>
+  </si>
+  <si>
+    <t>BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/EF-101</t>
+  </si>
+  <si>
+    <t>A03U838900</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 24 D</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/PF-703/PF-707/PF-707M</t>
+  </si>
+  <si>
+    <t>A03U845902</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A03U861002</t>
+  </si>
+  <si>
+    <t>DESVIADOR</t>
+  </si>
+  <si>
+    <t>A03UM32E00</t>
+  </si>
+  <si>
+    <t>LÂMPADA DE FUSÃO INFERIOR</t>
+  </si>
+  <si>
+    <t>A04D701300</t>
+  </si>
+  <si>
+    <t>GUIDE SHEET /5</t>
+  </si>
+  <si>
+    <t>FS-531/FS-607/FS-612</t>
+  </si>
+  <si>
+    <t>A0G6405400</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /1 20T</t>
+  </si>
+  <si>
+    <t>A0G6414000</t>
+  </si>
+  <si>
+    <t>SEALING PART /R</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>A0GD520900</t>
+  </si>
+  <si>
+    <t>Polia</t>
+  </si>
+  <si>
+    <t>PF-703/PF-707/PF-707M/PF-710/PF-712/PF-812</t>
+  </si>
+  <si>
+    <t>A0GD610600</t>
+  </si>
+  <si>
+    <t>Limitador</t>
+  </si>
+  <si>
+    <t>A0GD610701</t>
+  </si>
+  <si>
+    <t>Botão de fixação</t>
+  </si>
+  <si>
+    <t>A0GD611000</t>
+  </si>
+  <si>
+    <t>A0GDR72300</t>
+  </si>
+  <si>
+    <t>CONJUNTO LIMITADOR</t>
+  </si>
+  <si>
+    <t>PF-703/PF-707/PF-707M</t>
+  </si>
+  <si>
+    <t>A0HR223700</t>
+  </si>
+  <si>
+    <t>CORREIA DE SINCRONISMO</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951/FS-527</t>
+  </si>
+  <si>
+    <t>A0WJM10001</t>
+  </si>
+  <si>
+    <t>CONJUNTO DO MOTOR</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951/PF-P08/PF-P09</t>
+  </si>
+  <si>
+    <t>A0Y5M90101</t>
+  </si>
+  <si>
+    <t>AMORTECEDOR</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951/FS-531/FS-532/FS-532 PK-SD/FS-612/OT-510/RU-506/RU-510</t>
+  </si>
+  <si>
+    <t>A161625114</t>
+  </si>
+  <si>
+    <t>TAMPA</t>
+  </si>
+  <si>
+    <t>BIZHUB C224/BIZHUB C224E/BIZHUB C258/BIZHUB C284/BIZHUB C284E/BIZHUB C308/BIZHUB C368/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C554/BIZHUB C554E</t>
+  </si>
+  <si>
+    <t>A1RF105900</t>
+  </si>
+  <si>
+    <t>BRAÇO</t>
+  </si>
+  <si>
+    <t>A1RF106000</t>
+  </si>
+  <si>
+    <t>Eixo Guia</t>
+  </si>
+  <si>
+    <t>A1RF120600</t>
+  </si>
+  <si>
+    <t>A1RF121700</t>
+  </si>
+  <si>
+    <t>SELO /1</t>
+  </si>
+  <si>
+    <t>A1RF121900</t>
+  </si>
+  <si>
+    <t>SELO /2</t>
+  </si>
+  <si>
+    <t>A1RF435201</t>
+  </si>
+  <si>
+    <t>PARAFUSO</t>
+  </si>
+  <si>
+    <t>A1RF435500</t>
+  </si>
+  <si>
+    <t>BUCHA</t>
+  </si>
+  <si>
+    <t>A1RF808600</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM DE PRESSÃO /5 42T</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C6100/ACCURIOPRINT C2060L/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L/EF-104</t>
+  </si>
+  <si>
+    <t>A1RF815801</t>
+  </si>
+  <si>
+    <t>MOLA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000</t>
+  </si>
+  <si>
+    <t>A1RF841603</t>
+  </si>
+  <si>
+    <t>ROLO 4</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000/BIZHUB PRESS C8000/PF-704/PF-707/PF-707M</t>
+  </si>
+  <si>
+    <t>A1TV700200</t>
+  </si>
+  <si>
+    <t>FOLHA GUIA</t>
+  </si>
+  <si>
+    <t>FS-531/FS-612</t>
+  </si>
+  <si>
+    <t>A1TV700300</t>
+  </si>
+  <si>
+    <t>GUIDE  SHEET  /B</t>
+  </si>
+  <si>
+    <t>A1TV700400</t>
+  </si>
+  <si>
+    <t>GUIDE  SHEET  /C</t>
+  </si>
+  <si>
+    <t>A1TW160200</t>
+  </si>
+  <si>
+    <t>DF-622</t>
+  </si>
+  <si>
+    <t>A1UDM20000</t>
+  </si>
+  <si>
+    <t>EMBREAGEM</t>
+  </si>
+  <si>
+    <t>BIZHUB 283/BIZHUB 36/BIZHUB 363/BIZHUB 42/BIZHUB 423</t>
+  </si>
+  <si>
+    <t>A2UPN30501</t>
+  </si>
+  <si>
+    <t>CABO DE ALIMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>BIZHUB 206/BIZHUB 3602P/BIZHUB 3622/BIZHUB 4020/BIZHUB 4050/BIZHUB 4051I/BIZHUB 4052/BIZHUB 4752/BIZHUB C226/BIZHUB C266/BIZHUB C3100P/BIZHUB C3110/BIZHUB C3300I/BIZHUB C3350/BIZHUB C3350I/BIZHUB C3351/BIZHUB C3351I/BIZHUB C3850/IC-318/IC-610/IC-611/IQ-520/PF-712/RU-518M</t>
+  </si>
+  <si>
+    <t>A3EPPP3603</t>
+  </si>
+  <si>
+    <t>FS-534/FS-536/FS-536SD/FS-539/FS-539 SD</t>
+  </si>
+  <si>
+    <t>A3EPPP3702</t>
+  </si>
+  <si>
+    <t>ROLETE</t>
+  </si>
+  <si>
+    <t>FS-534/FS-536/FS-536SD/FS-539/FS-539 SD/SD-511</t>
+  </si>
+  <si>
+    <t>A3EPPP3H01</t>
+  </si>
+  <si>
+    <t>A3EPPP4D04</t>
+  </si>
+  <si>
+    <t>FS-534/FS-536/FS-536SD</t>
+  </si>
+  <si>
+    <t>A3EPPP4E04</t>
+  </si>
+  <si>
+    <t>A3EPPP4G15</t>
+  </si>
+  <si>
+    <t>A3EPPP4H05</t>
+  </si>
+  <si>
+    <t>FS-534</t>
+  </si>
+  <si>
+    <t>A3EPPP4J04</t>
+  </si>
+  <si>
+    <t>A3EPPP7H00</t>
+  </si>
+  <si>
+    <t>A3EPPP8701</t>
+  </si>
+  <si>
+    <t>CORREIA</t>
+  </si>
+  <si>
+    <t>A3EPPPDC00</t>
+  </si>
+  <si>
+    <t>Holder/REAR</t>
+  </si>
+  <si>
+    <t>A3EPPPDD00</t>
+  </si>
+  <si>
+    <t>Holder/Front</t>
+  </si>
+  <si>
+    <t>A4EUR72200</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE CORPO PRINCIPAL</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>A4EUR72311</t>
+  </si>
+  <si>
+    <t>Conjunto superior do toner</t>
+  </si>
+  <si>
+    <t>A4EUR75P00</t>
+  </si>
+  <si>
+    <t>CONJUNTO DO MOTOR DE LÂMINA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>A4F3905400</t>
+  </si>
+  <si>
+    <t>ESCOVA NEUTRALIZADORA /S</t>
+  </si>
+  <si>
+    <t>FS-532/FS-532 PK-SD/OT-510/OT-512</t>
+  </si>
+  <si>
+    <t>A4F3R71511</t>
+  </si>
+  <si>
+    <t>CONJUNTO DA CORREIA</t>
+  </si>
+  <si>
+    <t>FS-532/FS-532 PK-SD</t>
+  </si>
+  <si>
+    <t>A50U221701</t>
+  </si>
+  <si>
+    <t>GUIA</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50U221800</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM  /D 40T</t>
+  </si>
+  <si>
+    <t>A50U505800</t>
+  </si>
+  <si>
+    <t>BLOCO DE VOLTAGEM /B</t>
+  </si>
+  <si>
+    <t>A50U520001</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50U525900</t>
+  </si>
+  <si>
+    <t>FILME</t>
+  </si>
+  <si>
+    <t>A50U738500</t>
+  </si>
+  <si>
+    <t>SUPORTE</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50U743200</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 87D</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50UR70266</t>
+  </si>
+  <si>
+    <t>UNIDADE DE REVELAÇÃO</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50UR73A33</t>
+  </si>
+  <si>
+    <t>DUTO</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A55C571101</t>
+  </si>
+  <si>
+    <t>PF-707/PF-707M</t>
+  </si>
+  <si>
+    <t>A55C579600</t>
+  </si>
+  <si>
+    <t>A55C612201</t>
+  </si>
+  <si>
+    <t>Placa de reforço</t>
+  </si>
+  <si>
+    <t>PF-703/PF-704/PF-707/PF-707M/PF-710</t>
+  </si>
+  <si>
+    <t>A5AW119500</t>
+  </si>
+  <si>
+    <t>Separating  Cushion</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
+  </si>
+  <si>
+    <t>A5AW165500</t>
+  </si>
+  <si>
+    <t>CHAPA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
+  </si>
+  <si>
+    <t>A5AW359800</t>
+  </si>
+  <si>
+    <t>A5AW808000</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/EF-104</t>
+  </si>
+  <si>
+    <t>A5AW811400</t>
+  </si>
+  <si>
+    <t>Conveyance Spring /5</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
+  </si>
+  <si>
+    <t>A5AW861000</t>
+  </si>
+  <si>
+    <t>EIXO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t>A5AWR71400</t>
+  </si>
+  <si>
+    <t>CONJUNTO DO CILINDRO</t>
+  </si>
+  <si>
+    <t>A5AWR72300</t>
+  </si>
+  <si>
+    <t>SENSOR</t>
+  </si>
+  <si>
+    <t>A5AWR72E00</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE LIMPEZA AUXILIAR</t>
+  </si>
+  <si>
+    <t>A5C1562200</t>
+  </si>
+  <si>
+    <t>BIZHUB 283/BIZHUB 287/BIZHUB 36/BIZHUB 363/BIZHUB 367/BIZHUB 4051I/BIZHUB 42/BIZHUB 423/BIZHUB 654E/BIZHUB 754E/BIZHUB C221/BIZHUB C221S/BIZHUB C224/BIZHUB C224E/BIZHUB C226/BIZHUB C258/BIZHUB C266/BIZHUB C281/BIZHUB C284/BIZHUB C284E/BIZHUB C287/BIZHUB C300I/BIZHUB C308/BIZHUB C3300I/BIZHUB C3350I/BIZHUB C3351I/BIZHUB C368/BIZHUB C451/BIZHUB C452/BIZHUB C454/BIZHUB C454E/BIZHUB C550/BIZHUB C554/BIZHUB C554E/BIZHUB C652/BIZHUB C654/LU-301/PC-210/PC-214</t>
+  </si>
+  <si>
+    <t>A5C1H0200B</t>
+  </si>
+  <si>
+    <t>PLACA PWB MFP</t>
+  </si>
+  <si>
+    <t>BIZHUB C224E/BIZHUB C284E/BIZHUB C454E/BIZHUB C554E</t>
+  </si>
+  <si>
+    <t>A5C1R72011</t>
+  </si>
+  <si>
+    <t>CONJUNTO TRACAO PRINCIPAL</t>
+  </si>
+  <si>
+    <t>BIZHUB C224E/BIZHUB C284E</t>
+  </si>
+  <si>
+    <t>A6DT941800</t>
+  </si>
+  <si>
+    <t>BIZHUB C3110</t>
+  </si>
+  <si>
+    <t>A7PUM40800</t>
+  </si>
+  <si>
+    <t>PLACA DE ALTA TENSÃO</t>
+  </si>
+  <si>
+    <t>BIZHUB C258/BIZHUB C308/BIZHUB C368</t>
+  </si>
+  <si>
+    <t>A7X5720100</t>
+  </si>
+  <si>
+    <t>ROLO DA FUSÃO</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF</t>
+  </si>
+  <si>
+    <t>A85C161300</t>
+  </si>
+  <si>
+    <t>Leitor</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRINT C2060L</t>
+  </si>
+  <si>
+    <t>A92EN10B00</t>
+  </si>
+  <si>
+    <t>Sensor Relay harness</t>
+  </si>
+  <si>
+    <t>BIZHUB C3351</t>
+  </si>
+  <si>
+    <t>A92WR70211</t>
+  </si>
+  <si>
+    <t>CAIXA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/RE-101</t>
+  </si>
+  <si>
+    <t>A92WR70744</t>
+  </si>
+  <si>
+    <t>UNIDADE DE TRANSFERÊNCIA /2</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100</t>
+  </si>
+  <si>
+    <t>A92WR70R00</t>
+  </si>
+  <si>
+    <t>MOTOR DE LIMPEZA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100/IQ-520</t>
+  </si>
+  <si>
+    <t>A92WR71E00</t>
+  </si>
+  <si>
+    <t>Fusing Front Guide Assy</t>
+  </si>
+  <si>
+    <t>A93EN11412</t>
   </si>
   <si>
     <t>CABO</t>
   </si>
   <si>
-    <t>LT-211/LU-202/LU-202M</t>
-  </si>
-  <si>
-    <t>20AA15140</t>
-  </si>
-  <si>
-    <t>CABO DE AÇO</t>
-  </si>
-  <si>
-    <t>20AA15150</t>
-  </si>
-  <si>
-    <t>FIO /D</t>
-  </si>
-  <si>
-    <t>LT-211/LU-202/LU-202M/LU-202XL/LU-202XLM/LU-208XL</t>
-  </si>
-  <si>
-    <t>20AAR70400</t>
-  </si>
-  <si>
-    <t>DOBRADIÇA</t>
-  </si>
-  <si>
-    <t>930.08.0005.00</t>
-  </si>
-  <si>
-    <t>MT PKG INKJET CABEÇA DE IMPRESSÃO</t>
-  </si>
-  <si>
-    <t>A034M20100</t>
-  </si>
-  <si>
-    <t>SOLENOIDE</t>
-  </si>
-  <si>
-    <t>BIZHUB 287/BIZHUB 367/BIZHUB C220/BIZHUB C221/BIZHUB C221S/BIZHUB C224/BIZHUB C224E/BIZHUB C226/BIZHUB C227I/BIZHUB C258/BIZHUB C266/BIZHUB C280/BIZHUB C281/BIZHUB C284/BIZHUB C284E/BIZHUB C287/BIZHUB C300I/BIZHUB C308/BIZHUB C368/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C554/BIZHUB C554E</t>
-  </si>
-  <si>
-    <t>A03U553000</t>
-  </si>
-  <si>
-    <t>LÂMINA DE LIMPEZA</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>A03U720100</t>
-  </si>
-  <si>
-    <t>ROLO DE FUSÃO /1</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/EF-101</t>
-  </si>
-  <si>
-    <t>A03U720201</t>
-  </si>
-  <si>
-    <t>ROLO DA FUSÃO /2</t>
-  </si>
-  <si>
-    <t>A03U725000</t>
-  </si>
-  <si>
-    <t>BUCHA</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Descont. perm. venda</t>
-  </si>
-  <si>
-    <t>A0G6357500</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 15 DENTES</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>A161897200</t>
-  </si>
-  <si>
-    <t>GUIA</t>
-  </si>
-  <si>
-    <t>BIZHUB 287/BIZHUB 367/BIZHUB C221/BIZHUB C224/BIZHUB C224E/BIZHUB C258/BIZHUB C281/BIZHUB C284/BIZHUB C284E/BIZHUB C300I/BIZHUB C301I/BIZHUB C308/BIZHUB C368/OT-506</t>
-  </si>
-  <si>
-    <t>A1DU736000</t>
-  </si>
-  <si>
-    <t>CORREIA DA FUSÃO 251L</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC</t>
-  </si>
-  <si>
-    <t>A1DUR71311</t>
-  </si>
-  <si>
-    <t>UNIDADE DE CARGA</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C70HC</t>
-  </si>
-  <si>
-    <t>A1DUR72000</t>
-  </si>
-  <si>
-    <t>TERMISTOR</t>
-  </si>
-  <si>
-    <t>A1RF372300</t>
-  </si>
-  <si>
-    <t>ACOPLADOR /1</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A1RF829800</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /B 30D</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000</t>
-  </si>
-  <si>
-    <t>A1RF845800</t>
-  </si>
-  <si>
-    <t>Idler  Roller  /L</t>
-  </si>
-  <si>
-    <t>A1RF895101</t>
-  </si>
-  <si>
-    <t>MOLA DA SAÍDA DO PAPEL /2</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000</t>
-  </si>
-  <si>
-    <t>A3CFPP5R00</t>
-  </si>
-  <si>
-    <t>Motor</t>
-  </si>
-  <si>
-    <t>BIZHUB C454/BIZHUB C454E/BIZHUB C554/BIZHUB C554E/DF-624/DF-628/DF-629/DF-632/DF-714</t>
-  </si>
-  <si>
-    <t>A3EPPP7U01</t>
-  </si>
-  <si>
-    <t>MOLA DE TORSÃO</t>
-  </si>
-  <si>
-    <t>FS-534/FS-536/FS-536SD/FS-539/FS-539 SD</t>
-  </si>
-  <si>
-    <t>A3EPPPAK00</t>
-  </si>
-  <si>
-    <t>CONJUNTO DA CORREIA</t>
-  </si>
-  <si>
-    <t>FS-534/FS-536/FS-536SD</t>
-  </si>
-  <si>
-    <t>A3EPPPAP00</t>
-  </si>
-  <si>
-    <t>BRAÇO</t>
-  </si>
-  <si>
-    <t>A50U161700</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50U165600</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50U360700</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /1 75/23T</t>
-  </si>
-  <si>
-    <t>A50U361200</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /3 32/22T</t>
-  </si>
-  <si>
-    <t>A50U361401</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /2 29/25T</t>
-  </si>
-  <si>
-    <t>A50U401200</t>
-  </si>
-  <si>
-    <t>Selo de proteção</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50U529100</t>
-  </si>
-  <si>
-    <t>ROLO DE TRANSFERENCIA</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50U717901</t>
-  </si>
-  <si>
-    <t>Adjusting  Jig  /ASSY</t>
-  </si>
-  <si>
-    <t>A50U762912</t>
-  </si>
-  <si>
-    <t>PORTA DE ABERTURA / FECHAMENTO</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRINT C2060L/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A5AW852200</t>
-  </si>
-  <si>
-    <t>EIXO</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
-  </si>
-  <si>
-    <t>A5AWR71400</t>
-  </si>
-  <si>
-    <t>CONJUNTO DO CILINDRO</t>
-  </si>
-  <si>
-    <t>A5AWR72300</t>
-  </si>
-  <si>
-    <t>SENSOR</t>
-  </si>
-  <si>
-    <t>A5AWR73300</t>
-  </si>
-  <si>
-    <t>A63PPP0400</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE TAMPA</t>
-  </si>
-  <si>
-    <t>BIZHUB 4000P/BIZHUB 4700P</t>
-  </si>
-  <si>
-    <t>A64J564201</t>
-  </si>
-  <si>
-    <t>ROLO DE ALIMENTAÇÃO DE PAPEL</t>
-  </si>
-  <si>
-    <t>BIZHUB 4051I/BIZHUB C227I/BIZHUB C300I/BIZHUB C301I/BIZHUB C3300I/BIZHUB C3350I/BIZHUB C3351I/BIZHUB C458/PC-215/PC-216</t>
-  </si>
-  <si>
-    <t>A797M50000</t>
-  </si>
-  <si>
-    <t>FOTO SENSOR</t>
-  </si>
-  <si>
-    <t>BIZHUB C25/BIZHUB C287/BIZHUB C3100P/BIZHUB C3110/BIZHUB C35</t>
-  </si>
-  <si>
-    <t>A7AH212200</t>
-  </si>
-  <si>
-    <t>Gear 22/29T</t>
-  </si>
-  <si>
-    <t>BIZHUB 287/BIZHUB 367</t>
-  </si>
-  <si>
-    <t>A7AH213500</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 14/37D</t>
-  </si>
-  <si>
-    <t>A7AH213903</t>
-  </si>
-  <si>
-    <t>SUPORTE</t>
-  </si>
-  <si>
-    <t>A7AHM20501</t>
-  </si>
-  <si>
-    <t>EMBREAGEM</t>
-  </si>
-  <si>
-    <t>BIZHUB 287/BIZHUB 367/BIZHUB 4051I/BIZHUB C226/BIZHUB C227I/BIZHUB C266/BIZHUB C287/BIZHUB C300I/BIZHUB C301I/BIZHUB C3300I/BIZHUB C3350I/BIZHUB C3351I</t>
-  </si>
-  <si>
-    <t>A7PU596100</t>
-  </si>
-  <si>
-    <t>PLACA REGULADORA  /L</t>
-  </si>
-  <si>
-    <t>BIZHUB C258/BIZHUB C308/BIZHUB C368/BIZHUB C458</t>
-  </si>
-  <si>
-    <t>A9CEN11100</t>
-  </si>
-  <si>
-    <t>FIAÇÃO /11</t>
-  </si>
-  <si>
-    <t>RU-518/RU-518M</t>
-  </si>
-  <si>
-    <t>A9JTM50300</t>
-  </si>
-  <si>
-    <t>SENSOR DE TEMPERATURA</t>
+    <t>BIZHUB 4051I/BIZHUB C3350I/BIZHUB C3351I</t>
+  </si>
+  <si>
+    <t>A9JT132500</t>
+  </si>
+  <si>
+    <t>Protection  Box</t>
   </si>
   <si>
     <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P</t>
   </si>
   <si>
-    <t>A9VEN15000</t>
-  </si>
-  <si>
-    <t>ADU   Drive harness   /1</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 230/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C3070L/ACCURIOPRINT C4065</t>
-  </si>
-  <si>
-    <t>A9VP747800</t>
-  </si>
-  <si>
-    <t>ATUADOR</t>
+    <t>A9JT135000</t>
+  </si>
+  <si>
+    <t>Insulating  Sheet</t>
+  </si>
+  <si>
+    <t>A9JT517700</t>
+  </si>
+  <si>
+    <t>Release  Cam</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100</t>
+  </si>
+  <si>
+    <t>A9JT518000</t>
+  </si>
+  <si>
+    <t>A9JTM10200</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRINT 2100/CK-101/IQ-520/LU-414/MB-511/PF-707M/TS-101</t>
+  </si>
+  <si>
+    <t>A9JTR71622</t>
+  </si>
+  <si>
+    <t>UNIDADE DE LIMPEZA DO CILINDRO</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>A9VE500200</t>
+  </si>
+  <si>
+    <t>CORREIA DE TRANSFERÊNCIA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C3070L/ACCURIOPRINT C4065</t>
+  </si>
+  <si>
+    <t>A9VER71300</t>
+  </si>
+  <si>
+    <t>UNIDADE LASER</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C3080P/ACCURIOPRESS C83HC/ACCURIOPRINT C3070L</t>
+  </si>
+  <si>
+    <t>A9VP727500</t>
+  </si>
+  <si>
+    <t>Selo</t>
   </si>
   <si>
     <t>ACCURIOPRESS C7100</t>
   </si>
   <si>
-    <t>AA2J560000</t>
-  </si>
-  <si>
-    <t>CONJUNTO DO ROLO DE ALIMENTAÇÃO</t>
-  </si>
-  <si>
-    <t>BIZHUB C224/BIZHUB C224E/BIZHUB C227I/BIZHUB C258/BIZHUB C284/BIZHUB C284E/BIZHUB C300I/BIZHUB C301I/BIZHUB C308/BIZHUB C368/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C554/BIZHUB C554E/PC-216</t>
+    <t>A9VP727600</t>
+  </si>
+  <si>
+    <t>A9VP727700</t>
+  </si>
+  <si>
+    <t>SELO GUIA</t>
+  </si>
+  <si>
+    <t>A9VP758000</t>
+  </si>
+  <si>
+    <t>PLACA SEPARADORA /11</t>
+  </si>
+  <si>
+    <t>A9VP758800</t>
+  </si>
+  <si>
+    <t>MOLA /2</t>
+  </si>
+  <si>
+    <t>A9VPR73022</t>
+  </si>
+  <si>
+    <t>A9VPR75400</t>
+  </si>
+  <si>
+    <t>Cleaning Motor Worm Assy</t>
+  </si>
+  <si>
+    <t>A9VPR77800</t>
+  </si>
+  <si>
+    <t>CONJUNTO REFLETOR</t>
+  </si>
+  <si>
+    <t>AA1PPP0700</t>
+  </si>
+  <si>
+    <t>COVER/FRONT</t>
+  </si>
+  <si>
+    <t>BIZHUB 4052/BIZHUB 4752</t>
+  </si>
+  <si>
+    <t>AA2J593400</t>
+  </si>
+  <si>
+    <t>PLACA REGULADORA  /F</t>
+  </si>
+  <si>
+    <t>BIZHUB C300I/BIZHUB C301I</t>
   </si>
   <si>
     <t>AA2JR70322</t>
@@ -445,37 +979,61 @@
     <t>AA2JR70333</t>
   </si>
   <si>
-    <t>AAJRR70111</t>
-  </si>
-  <si>
-    <t>UNIDADE DE TRANSFERÊNCIA</t>
-  </si>
-  <si>
-    <t>BIZHUB C3300I/BIZHUB C3350I/BIZHUB C3351I</t>
-  </si>
-  <si>
-    <t>AC0C743000</t>
+    <t>AC0C720300</t>
+  </si>
+  <si>
+    <t>CORREIA DA FUSÃO 527L</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000</t>
+  </si>
+  <si>
+    <t>AC0C835400</t>
+  </si>
+  <si>
+    <t>Slide  Bushing /1</t>
+  </si>
+  <si>
+    <t>AC0C841300</t>
+  </si>
+  <si>
+    <t>AC0C841400</t>
+  </si>
+  <si>
+    <t>AC0CM50200</t>
+  </si>
+  <si>
+    <t>Photointerrupter  /S</t>
   </si>
   <si>
     <t>ACCURIOLABEL 400/ACCURIOPRESS C14000</t>
   </si>
   <si>
-    <t>AC0CR74311</t>
-  </si>
-  <si>
-    <t>UNIDADE DE LIMPEZA AUXILIAR</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000</t>
-  </si>
-  <si>
-    <t>AC57R75133</t>
-  </si>
-  <si>
-    <t>UNIDADE LIMPEZA DA CORREIA TRANSFERÊNCIA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C4080/ACCURIOPRINT C4065</t>
+    <t>AC0CR70622</t>
+  </si>
+  <si>
+    <t>CONJUNTO CAIXA COLETORA</t>
+  </si>
+  <si>
+    <t>DD1A012A30</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE FUSÃO</t>
+  </si>
+  <si>
+    <t>MFBP</t>
+  </si>
+  <si>
+    <t>MFP Non-HW BW: Part</t>
+  </si>
+  <si>
+    <t>V500020030</t>
+  </si>
+  <si>
+    <t>GARRA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951/BIZHUB PRO C6501/BIZHUB PRO C6501P/HT-503/HT-506/PF-602</t>
   </si>
   <si>
     <t>Material</t>
@@ -585,15 +1143,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,51 +1171,51 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="20" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="42" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="35" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="15" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="27" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="9" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="7" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="21" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="14" customWidth="1"/>
     <col min="8" max="8" bestFit="1" width="24" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="13" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="23" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="695" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="650" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>343</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>344</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>345</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -800,15 +1355,15 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -835,15 +1390,15 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -870,15 +1425,15 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -905,15 +1460,15 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -940,15 +1495,15 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -975,15 +1530,15 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1010,50 +1565,50 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1074,21 +1629,21 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1115,15 +1670,15 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1150,15 +1705,15 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1179,48 +1734,48 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1249,21 +1804,21 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1290,15 +1845,15 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1325,15 +1880,15 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1360,15 +1915,15 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1395,15 +1950,15 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1430,15 +1985,15 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1465,15 +2020,15 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1500,15 +2055,15 @@
         <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1529,21 +2084,21 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1570,15 +2125,15 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1605,15 +2160,15 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1640,15 +2195,15 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1675,15 +2230,15 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1710,15 +2265,15 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1745,15 +2300,15 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1780,15 +2335,15 @@
         <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1815,15 +2370,15 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1850,15 +2405,15 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1885,15 +2440,15 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1920,50 +2475,50 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
         <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1990,15 +2545,15 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2025,15 +2580,15 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2060,15 +2615,15 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2095,15 +2650,15 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2130,15 +2685,15 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2165,15 +2720,15 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2200,15 +2755,15 @@
         <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2235,15 +2790,15 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2270,15 +2825,15 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2305,15 +2860,15 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2340,15 +2895,15 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2375,7 +2930,7 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2488,7 +3043,7 @@
         <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2515,50 +3070,50 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
         <v>145</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -2585,15 +3140,15 @@
         <v>6</v>
       </c>
       <c r="K56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -2656,6 +3211,2806 @@
       </c>
       <c r="K58" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" t="s">
+        <v>6</v>
+      </c>
+      <c r="I83" t="s">
+        <v>6</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" t="s">
+        <v>6</v>
+      </c>
+      <c r="I88" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" t="s">
+        <v>6</v>
+      </c>
+      <c r="I89" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" t="s">
+        <v>6</v>
+      </c>
+      <c r="K93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" t="s">
+        <v>6</v>
+      </c>
+      <c r="I94" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I97" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" t="s">
+        <v>6</v>
+      </c>
+      <c r="K97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" t="s">
+        <v>6</v>
+      </c>
+      <c r="K98" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>246</v>
+      </c>
+      <c r="B100" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" t="s">
+        <v>6</v>
+      </c>
+      <c r="K100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>6</v>
+      </c>
+      <c r="K101" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" t="s">
+        <v>6</v>
+      </c>
+      <c r="K102" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="I103" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" t="s">
+        <v>6</v>
+      </c>
+      <c r="K103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="I104" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" t="s">
+        <v>6</v>
+      </c>
+      <c r="K104" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" t="s">
+        <v>6</v>
+      </c>
+      <c r="K105" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" t="s">
+        <v>6</v>
+      </c>
+      <c r="K106" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I107" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" t="s">
+        <v>6</v>
+      </c>
+      <c r="K107" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" t="s">
+        <v>270</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" t="s">
+        <v>6</v>
+      </c>
+      <c r="K108" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>6</v>
+      </c>
+      <c r="I109" t="s">
+        <v>6</v>
+      </c>
+      <c r="J109" t="s">
+        <v>6</v>
+      </c>
+      <c r="K109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" t="s">
+        <v>275</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H110" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" t="s">
+        <v>6</v>
+      </c>
+      <c r="J110" t="s">
+        <v>6</v>
+      </c>
+      <c r="K110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" t="s">
+        <v>278</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" t="s">
+        <v>6</v>
+      </c>
+      <c r="J111" t="s">
+        <v>6</v>
+      </c>
+      <c r="K111" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>280</v>
+      </c>
+      <c r="B112" t="s">
+        <v>281</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" t="s">
+        <v>6</v>
+      </c>
+      <c r="I112" t="s">
+        <v>6</v>
+      </c>
+      <c r="J112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K112" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>6</v>
+      </c>
+      <c r="I113" t="s">
+        <v>6</v>
+      </c>
+      <c r="J113" t="s">
+        <v>6</v>
+      </c>
+      <c r="K113" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" t="s">
+        <v>6</v>
+      </c>
+      <c r="K114" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>286</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>6</v>
+      </c>
+      <c r="J115" t="s">
+        <v>6</v>
+      </c>
+      <c r="K115" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>288</v>
+      </c>
+      <c r="B116" t="s">
+        <v>289</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" t="s">
+        <v>6</v>
+      </c>
+      <c r="K116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>291</v>
+      </c>
+      <c r="B117" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>6</v>
+      </c>
+      <c r="J117" t="s">
+        <v>6</v>
+      </c>
+      <c r="K117" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>294</v>
+      </c>
+      <c r="B118" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" t="s">
+        <v>6</v>
+      </c>
+      <c r="K118" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" t="s">
+        <v>6</v>
+      </c>
+      <c r="K119" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>6</v>
+      </c>
+      <c r="H120" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" t="s">
+        <v>6</v>
+      </c>
+      <c r="J120" t="s">
+        <v>6</v>
+      </c>
+      <c r="K120" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" t="s">
+        <v>6</v>
+      </c>
+      <c r="J121" t="s">
+        <v>6</v>
+      </c>
+      <c r="K121" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J122" t="s">
+        <v>6</v>
+      </c>
+      <c r="K122" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>305</v>
+      </c>
+      <c r="B123" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" t="s">
+        <v>6</v>
+      </c>
+      <c r="J123" t="s">
+        <v>6</v>
+      </c>
+      <c r="K123" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" t="s">
+        <v>6</v>
+      </c>
+      <c r="I124" t="s">
+        <v>6</v>
+      </c>
+      <c r="J124" t="s">
+        <v>6</v>
+      </c>
+      <c r="K124" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>308</v>
+      </c>
+      <c r="B125" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>5</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" t="s">
+        <v>6</v>
+      </c>
+      <c r="J125" t="s">
+        <v>6</v>
+      </c>
+      <c r="K125" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>310</v>
+      </c>
+      <c r="B126" t="s">
+        <v>311</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" t="s">
+        <v>6</v>
+      </c>
+      <c r="I126" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" t="s">
+        <v>6</v>
+      </c>
+      <c r="K126" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>312</v>
+      </c>
+      <c r="B127" t="s">
+        <v>313</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" t="s">
+        <v>6</v>
+      </c>
+      <c r="I127" t="s">
+        <v>6</v>
+      </c>
+      <c r="J127" t="s">
+        <v>6</v>
+      </c>
+      <c r="K127" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>315</v>
+      </c>
+      <c r="B128" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>6</v>
+      </c>
+      <c r="H128" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" t="s">
+        <v>6</v>
+      </c>
+      <c r="J128" t="s">
+        <v>6</v>
+      </c>
+      <c r="K128" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>318</v>
+      </c>
+      <c r="B129" t="s">
+        <v>319</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" t="s">
+        <v>6</v>
+      </c>
+      <c r="I129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J129" t="s">
+        <v>6</v>
+      </c>
+      <c r="K129" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>321</v>
+      </c>
+      <c r="B130" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" t="s">
+        <v>6</v>
+      </c>
+      <c r="J130" t="s">
+        <v>6</v>
+      </c>
+      <c r="K130" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>322</v>
+      </c>
+      <c r="B131" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" t="s">
+        <v>6</v>
+      </c>
+      <c r="J131" t="s">
+        <v>6</v>
+      </c>
+      <c r="K131" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" t="s">
+        <v>6</v>
+      </c>
+      <c r="I132" t="s">
+        <v>6</v>
+      </c>
+      <c r="J132" t="s">
+        <v>6</v>
+      </c>
+      <c r="K132" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>327</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>6</v>
+      </c>
+      <c r="H133" t="s">
+        <v>6</v>
+      </c>
+      <c r="I133" t="s">
+        <v>6</v>
+      </c>
+      <c r="J133" t="s">
+        <v>6</v>
+      </c>
+      <c r="K133" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>328</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" t="s">
+        <v>6</v>
+      </c>
+      <c r="J134" t="s">
+        <v>6</v>
+      </c>
+      <c r="K134" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>329</v>
+      </c>
+      <c r="B135" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" t="s">
+        <v>6</v>
+      </c>
+      <c r="H135" t="s">
+        <v>6</v>
+      </c>
+      <c r="I135" t="s">
+        <v>6</v>
+      </c>
+      <c r="J135" t="s">
+        <v>6</v>
+      </c>
+      <c r="K135" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>332</v>
+      </c>
+      <c r="B136" t="s">
+        <v>333</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" t="s">
+        <v>6</v>
+      </c>
+      <c r="I136" t="s">
+        <v>6</v>
+      </c>
+      <c r="J136" t="s">
+        <v>6</v>
+      </c>
+      <c r="K136" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>334</v>
+      </c>
+      <c r="B137" t="s">
+        <v>335</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>336</v>
+      </c>
+      <c r="F137" t="s">
+        <v>337</v>
+      </c>
+      <c r="G137" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" t="s">
+        <v>6</v>
+      </c>
+      <c r="J137" t="s">
+        <v>6</v>
+      </c>
+      <c r="K137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>338</v>
+      </c>
+      <c r="B138" t="s">
+        <v>339</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" t="s">
+        <v>6</v>
+      </c>
+      <c r="J138" t="s">
+        <v>6</v>
+      </c>
+      <c r="K138" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2904,9 +6259,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55073058-B210-4A2D-9435-D9F4944FACDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92CCB51-A418-4C43-BA60-9310F771E4AF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C10854B1-7BA9-4CCA-8557-5A71FA28E1D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5622022-2783-449E-B1C4-881667B5DB59}"/>
 </file>
--- a/ZTMM085.XLSX
+++ b/ZTMM085.XLSX
@@ -11,1029 +11,951 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="352">
-  <si>
-    <t>000000004030520401</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="326">
+  <si>
+    <t>000000000113620270</t>
+  </si>
+  <si>
+    <t>RODA DENTADA</t>
+  </si>
+  <si>
+    <t>PCPS</t>
+  </si>
+  <si>
+    <t>Produto Coml-Peça-SPO/MAO</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85</t>
+  </si>
+  <si>
+    <t>000000000500030320</t>
+  </si>
+  <si>
+    <t>ROLO</t>
+  </si>
+  <si>
+    <t>PF-701/PF-703</t>
+  </si>
+  <si>
+    <t>00VD1000</t>
+  </si>
+  <si>
+    <t>ESCOVA</t>
+  </si>
+  <si>
+    <t>MFCP</t>
+  </si>
+  <si>
+    <t>MFP Non-HW Col: Part</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT 2100/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 600/BIZHUB 601/BIZHUB 750/BIZHUB 751/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/BIZHUB PRO C1060L/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>25AA42570</t>
+  </si>
+  <si>
+    <t>POLIA DO CABO</t>
+  </si>
+  <si>
+    <t>7075/7085/7255/7272/BIZHUB PRO 920/FORCE85/LT-211/LU-201/LU-202/LU-202M/LU-202XL/LU-202XLM/LU-208XL/LU-301/LU-401/LU-402/LU-403/LU-404/LU-414/PB-503</t>
+  </si>
+  <si>
+    <t>55VA32480</t>
+  </si>
+  <si>
+    <t>FECHO MAGNÉTICO</t>
+  </si>
+  <si>
+    <t>7075/7085/ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C71HC/BIZHUB PRO 920/BIZHUB PRO C1060L/EF-101/FORCE85</t>
+  </si>
+  <si>
+    <t>55VA76530E</t>
+  </si>
+  <si>
+    <t>POLIA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951/PF-703/PF-710/RU-518/RU-518M/RU-702/SD-506</t>
+  </si>
+  <si>
+    <t>55VB83042</t>
+  </si>
+  <si>
+    <t>LÂMPADA DE FUSÃO 3</t>
+  </si>
+  <si>
+    <t>56UA12570</t>
+  </si>
+  <si>
+    <t>ALÇA</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951/PF-701/PF-703/PF-704/PF-707/PF-707M/PF-710/PF-712/PF-812</t>
+  </si>
+  <si>
+    <t>56UA32260</t>
   </si>
   <si>
     <t>SELO</t>
   </si>
   <si>
-    <t>PCPS</t>
-  </si>
-  <si>
-    <t>Produto Coml-Peça-SPO/MAO</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Parts</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1611/DI1611/KONICA7216/BIZHUB 162/BIZHUB 163/BIZHUB 163V/BIZHUB 164/BIZHUB 184/BIZHUB 210/BIZHUB 211/DI1811P/DI2011/KONICA 7218/KONICA 7220/DI2510/DI2510F/DI3010/DI3010F/DI3510/DI3510F</t>
-  </si>
-  <si>
-    <t>000000009314230021</t>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>56UA77111</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 60 DENTES</t>
+  </si>
+  <si>
+    <t>BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/PF-701/PF-703</t>
+  </si>
+  <si>
+    <t>56UA77260</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 48 DENTES</t>
+  </si>
+  <si>
+    <t>BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/PF-703</t>
+  </si>
+  <si>
+    <t>56UA78090</t>
+  </si>
+  <si>
+    <t>CORREIA A 192L</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>56UAR73900</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE ENGRENAGEM</t>
+  </si>
+  <si>
+    <t>57GA79440</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM/2 17T</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/IQ-520</t>
+  </si>
+  <si>
+    <t>65AA22290</t>
+  </si>
+  <si>
+    <t>MOLA</t>
+  </si>
+  <si>
+    <t>8050/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C8000/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>65AA26111</t>
+  </si>
+  <si>
+    <t>ROLO DE TRANSFERÊNCIA INFERIOR</t>
+  </si>
+  <si>
+    <t>8050/ACCURIOPRESS C6100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>65AA27180</t>
+  </si>
+  <si>
+    <t>APOIO DE TRANSFERÊNCIA</t>
+  </si>
+  <si>
+    <t>65AA40010</t>
+  </si>
+  <si>
+    <t>CHAPA REGULADORA</t>
+  </si>
+  <si>
+    <t>8050/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>65AA77730</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 2</t>
+  </si>
+  <si>
+    <t>8050/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>65AA80112</t>
   </si>
   <si>
     <t>MOTOR</t>
   </si>
   <si>
-    <t>BIZHUB C350/CF2203/BIZHUB C351/BIZHUB C450/BIZHUB C450P/BIZHUB C451/BIZHUB C452/BIZHUB C550/BIZHUB C652/BIZHUB C654</t>
-  </si>
-  <si>
-    <t>20AA15140</t>
-  </si>
-  <si>
-    <t>CABO DE AÇO</t>
-  </si>
-  <si>
-    <t>LT-211/LU-202/LU-202M</t>
-  </si>
-  <si>
-    <t>26NA32870</t>
-  </si>
-  <si>
-    <t>MOLA DE PRESSÃO 2</t>
-  </si>
-  <si>
-    <t>8050/ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 361/BIZHUB 420/BIZHUB 421/BIZHUB 500/BIZHUB 501/BIZHUB PRESS C1070P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRO C1060L/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>50BA40220</t>
-  </si>
-  <si>
-    <t>ROLO</t>
-  </si>
-  <si>
-    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85/LT-211/LU-202/LU-202M/LU-202XL/LU-202XLM/LU-208XL/LU-401/LU-402/LU-403/LU-404/LU-414/MB-511/PB-503/PF-601/PF-602/PF-701</t>
-  </si>
-  <si>
-    <t>55VA77890</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 20 D</t>
-  </si>
-  <si>
-    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85</t>
-  </si>
-  <si>
-    <t>55VA77960</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 14 DENTES</t>
-  </si>
-  <si>
-    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C8000/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85/PF-701/SD-501/SD-506</t>
-  </si>
-  <si>
-    <t>56GA76010</t>
-  </si>
-  <si>
-    <t>SUPORTE DO EIXO 2</t>
-  </si>
-  <si>
-    <t>7085/ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 600/BIZHUB 601/BIZHUB 750/BIZHUB 751/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 920/BIZHUB PRO C1060L/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/FORCE85</t>
-  </si>
-  <si>
-    <t>56UA32210</t>
-  </si>
-  <si>
-    <t>Parafuso</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>56UA32380</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>56UA32740</t>
-  </si>
-  <si>
-    <t>CONTROLE DA CHAPA LATERAL</t>
-  </si>
-  <si>
-    <t>56UA408200</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /A 26T</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>56UA75070</t>
-  </si>
-  <si>
-    <t>ROLAMENTO DE ROLETE</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C6100/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>56UA77440</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 34 D</t>
-  </si>
-  <si>
-    <t>ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>56UA77450</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM B 20/61 D</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>56UA78030</t>
-  </si>
-  <si>
-    <t>CORREIA 534 L</t>
-  </si>
-  <si>
-    <t>65AA30890</t>
-  </si>
-  <si>
-    <t>Funil</t>
+    <t>8050/ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT 2100/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRO C1060L/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/PF-707/PF-707M</t>
+  </si>
+  <si>
+    <t>9J06M20000</t>
+  </si>
+  <si>
+    <t>SOLENÓIDE</t>
+  </si>
+  <si>
+    <t>BIZHUB 206/BIZHUB 215/BIZHUB 250/BIZHUB 282/BIZHUB 283/BIZHUB 350/BIZHUB 36/BIZHUB 361/BIZHUB 362/BIZHUB 363/BIZHUB 42/BIZHUB 420/BIZHUB 421/BIZHUB 423/BIZHUB 500/BIZHUB 501/BIZHUB C220/BIZHUB C224/BIZHUB C224E/BIZHUB C250/BIZHUB C252/BIZHUB C253/BIZHUB C280/BIZHUB C284/BIZHUB C284E/BIZHUB C300/BIZHUB C352/BIZHUB C350/CF2203/BIZHUB C351/BIZHUB C450/BIZHUB C353/BIZHUB C450P/BIZHUB C454/BIZHUB C454E/BIZHUB C554/BIZHUB C554E/DI2510/DI2510F/DI3010/DI3010F/DI3510/DI3510F/FN-117/FS-508/FS-510/FS-514/FS-519/FS-519/MB-502</t>
+  </si>
+  <si>
+    <t>A00J563600</t>
+  </si>
+  <si>
+    <t>ACCURIOPRINT 2100/BIZHUB 283/BIZHUB 287/BIZHUB 36/BIZHUB 363/BIZHUB 367/BIZHUB 42/BIZHUB 423/BIZHUB 654E/BIZHUB 754E/BIZHUB C220/BIZHUB C221/BIZHUB C221S/BIZHUB C224/BIZHUB C224E/BIZHUB C226/BIZHUB C253/BIZHUB C258/BIZHUB C266/BIZHUB C280/BIZHUB C281/BIZHUB C284/BIZHUB C284E/BIZHUB C287/BIZHUB C308/BIZHUB C3300I/BIZHUB C3350I/BIZHUB C353/BIZHUB C368/BIZHUB C451/BIZHUB C452/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C550/BIZHUB C554/BIZHUB C554E/BIZHUB C652/BIZHUB C654/DF-617/DF-626/DF-628/DF-629/DF-632/DF-706/DF-713/DF-714/LU-301/PC-105/PC-204/PC-210/PC-214</t>
+  </si>
+  <si>
+    <t>A011946200</t>
+  </si>
+  <si>
+    <t>ETIQUETA</t>
+  </si>
+  <si>
+    <t>BIZHUB 282/BIZHUB 283/BIZHUB 287/BIZHUB 36/BIZHUB 362/BIZHUB 363/BIZHUB 367/BIZHUB 42/BIZHUB 423/BIZHUB 654E/BIZHUB 754E/BIZHUB C200/BIZHUB C220/BIZHUB C224/BIZHUB C224E/BIZHUB C226/BIZHUB C25/BIZHUB C253/BIZHUB C258/BIZHUB C266/BIZHUB C280/BIZHUB C284/BIZHUB C284E/BIZHUB C287/BIZHUB C308/BIZHUB C3100P/BIZHUB C3110/BIZHUB C3350/BIZHUB C3351/BIZHUB C35/BIZHUB C353/BIZHUB C35P/BIZHUB C368/BIZHUB C3850/BIZHUB C451/BIZHUB C452/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C550/BIZHUB C554/BIZHUB C554E/BIZHUB C652/BIZHUB C654</t>
+  </si>
+  <si>
+    <t>A03U195302</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRO C1060L/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>A03U195400</t>
+  </si>
+  <si>
+    <t>REGULATING PART</t>
+  </si>
+  <si>
+    <t>A03U195500</t>
+  </si>
+  <si>
+    <t>Rotation Stopper</t>
+  </si>
+  <si>
+    <t>A03U720100</t>
+  </si>
+  <si>
+    <t>ROLO DE FUSÃO /1</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/EF-101</t>
+  </si>
+  <si>
+    <t>A03U720201</t>
+  </si>
+  <si>
+    <t>ROLO DA FUSÃO /2</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>A03U808201</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 28D</t>
+  </si>
+  <si>
+    <t>A03U861002</t>
+  </si>
+  <si>
+    <t>DESVIADOR</t>
+  </si>
+  <si>
+    <t>A0ED275123</t>
+  </si>
+  <si>
+    <t>FIO</t>
+  </si>
+  <si>
+    <t>BIZHUB 283/BIZHUB 363/BIZHUB 423/BIZHUB C220/BIZHUB C280/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A0G6531401</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 1 41/47 DENTES</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>A0G6714200</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 18 DENTES</t>
+  </si>
+  <si>
+    <t>A0G6714600</t>
+  </si>
+  <si>
+    <t>A0GD522500</t>
+  </si>
+  <si>
+    <t>Roller Bearing /B</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/ACCURIOPRESS C7100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/OT-512/PF-703/PF-704/PF-707/PF-707M/PF-710/PF-712/PF-812</t>
+  </si>
+  <si>
+    <t>A0GD618101</t>
+  </si>
+  <si>
+    <t>Guide Side Plate /Rear</t>
+  </si>
+  <si>
+    <t>PF-703/PF-704</t>
+  </si>
+  <si>
+    <t>A0U0R71200</t>
+  </si>
+  <si>
+    <t>UNIDADE DE CARGA</t>
+  </si>
+  <si>
+    <t>BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
+  </si>
+  <si>
+    <t>A0VD941500</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Descont. perm. venda</t>
+  </si>
+  <si>
+    <t>BIZHUB C35P</t>
+  </si>
+  <si>
+    <t>A0VDR72555</t>
+  </si>
+  <si>
+    <t>CONJUNTO DO CASSETE</t>
+  </si>
+  <si>
+    <t>BIZHUB C25/BIZHUB C3100P/BIZHUB C3110</t>
+  </si>
+  <si>
+    <t>A161M20101</t>
+  </si>
+  <si>
+    <t>EMBREAGEM</t>
+  </si>
+  <si>
+    <t>BIZHUB C221/BIZHUB C221S/BIZHUB C224/BIZHUB C224E/BIZHUB C258/BIZHUB C281/BIZHUB C284/BIZHUB C284E/BIZHUB C308/BIZHUB C368/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C554/BIZHUB C554E</t>
+  </si>
+  <si>
+    <t>A1DU808600</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM 20/29T</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC</t>
+  </si>
+  <si>
+    <t>A1DUR71300</t>
+  </si>
+  <si>
+    <t>A1DUR73N00</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE SOLENOÍDE</t>
+  </si>
+  <si>
+    <t>A1RF105700</t>
+  </si>
+  <si>
+    <t>CHAPA DE MONTAGEM /6</t>
   </si>
   <si>
     <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000</t>
   </si>
   <si>
-    <t>65AA50320</t>
-  </si>
-  <si>
-    <t>CAME</t>
-  </si>
-  <si>
-    <t>8050/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C8000/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>65AA53651</t>
-  </si>
-  <si>
-    <t>LIMITADOR</t>
-  </si>
-  <si>
-    <t>8050/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>65AA77380</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM</t>
-  </si>
-  <si>
-    <t>8050/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000/BIZHUB PRO C500/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>A011946200</t>
-  </si>
-  <si>
-    <t>ETIQUETA</t>
-  </si>
-  <si>
-    <t>BIZHUB 282/BIZHUB 283/BIZHUB 287/BIZHUB 36/BIZHUB 362/BIZHUB 363/BIZHUB 367/BIZHUB 42/BIZHUB 423/BIZHUB 654E/BIZHUB 754E/BIZHUB C200/BIZHUB C220/BIZHUB C224/BIZHUB C224E/BIZHUB C226/BIZHUB C25/BIZHUB C253/BIZHUB C258/BIZHUB C266/BIZHUB C280/BIZHUB C284/BIZHUB C284E/BIZHUB C287/BIZHUB C308/BIZHUB C3100P/BIZHUB C3110/BIZHUB C3350/BIZHUB C3351/BIZHUB C35/BIZHUB C353/BIZHUB C35P/BIZHUB C368/BIZHUB C3850/BIZHUB C451/BIZHUB C452/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C550/BIZHUB C554/BIZHUB C554E/BIZHUB C652/BIZHUB C654</t>
-  </si>
-  <si>
-    <t>A03TM50000</t>
-  </si>
-  <si>
-    <t>FOTO REFLETOR</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS C14000/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT 2100/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 654E/BIZHUB 754E/BIZHUB C452/BIZHUB C652/BIZHUB C654/BIZHUB PRESS C1085/BIZHUB PRESS C1100/DF-617/DF-626/EF-101/EF-104</t>
-  </si>
-  <si>
-    <t>A03U725800</t>
+    <t>A1RF106000</t>
+  </si>
+  <si>
+    <t>Eixo Guia</t>
+  </si>
+  <si>
+    <t>A1RF502400</t>
+  </si>
+  <si>
+    <t>CAME TRANSFERÊNCIA</t>
+  </si>
+  <si>
+    <t>A1RF505400</t>
+  </si>
+  <si>
+    <t>ESPAÇADOR</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/BIZHUB C221/BIZHUB C221S/BIZHUB C224/BIZHUB C224E/BIZHUB C258/BIZHUB C281/BIZHUB C284/BIZHUB C284E/BIZHUB C308/BIZHUB C368/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C554/BIZHUB C554E/BIZHUB PRESS C8000/IQ-501/IQ-520/OT-511/RU-517/RU-518/RU-518M/RU-702</t>
+  </si>
+  <si>
+    <t>A1RF508200</t>
   </si>
   <si>
     <t>EIXO</t>
   </si>
   <si>
-    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>A03U808700</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /G 45 DENTES</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C8000/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P</t>
-  </si>
-  <si>
-    <t>A03U808811</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /H 35 DENTES</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Descont. perm. venda</t>
-  </si>
-  <si>
-    <t>A03U808900</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /I 26 DENTES 79 DENTES</t>
-  </si>
-  <si>
-    <t>BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/EF-101</t>
-  </si>
-  <si>
-    <t>A03U838900</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 24 D</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L/BIZHUB PRO C6500/BIZHUB PRO C6500P/BIZHUB PRO C6501/BIZHUB PRO C6501P/PF-703/PF-707/PF-707M</t>
-  </si>
-  <si>
-    <t>A03U845902</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A03U861002</t>
-  </si>
-  <si>
-    <t>DESVIADOR</t>
-  </si>
-  <si>
-    <t>A03UM32E00</t>
-  </si>
-  <si>
-    <t>LÂMPADA DE FUSÃO INFERIOR</t>
-  </si>
-  <si>
-    <t>A04D701300</t>
-  </si>
-  <si>
-    <t>GUIDE SHEET /5</t>
-  </si>
-  <si>
-    <t>FS-531/FS-607/FS-612</t>
-  </si>
-  <si>
-    <t>A0G6405400</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM /1 20T</t>
-  </si>
-  <si>
-    <t>A0G6414000</t>
-  </si>
-  <si>
-    <t>SEALING PART /R</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>A0GD520900</t>
-  </si>
-  <si>
-    <t>Polia</t>
-  </si>
-  <si>
-    <t>PF-703/PF-707/PF-707M/PF-710/PF-712/PF-812</t>
-  </si>
-  <si>
-    <t>A0GD610600</t>
-  </si>
-  <si>
-    <t>Limitador</t>
-  </si>
-  <si>
-    <t>A0GD610701</t>
-  </si>
-  <si>
-    <t>Botão de fixação</t>
-  </si>
-  <si>
-    <t>A0GD611000</t>
-  </si>
-  <si>
-    <t>A0GDR72300</t>
-  </si>
-  <si>
-    <t>CONJUNTO LIMITADOR</t>
-  </si>
-  <si>
-    <t>PF-703/PF-707/PF-707M</t>
-  </si>
-  <si>
-    <t>A0HR223700</t>
-  </si>
-  <si>
-    <t>CORREIA DE SINCRONISMO</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951/FS-527</t>
-  </si>
-  <si>
-    <t>A0WJM10001</t>
-  </si>
-  <si>
-    <t>CONJUNTO DO MOTOR</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951/PF-P08/PF-P09</t>
-  </si>
-  <si>
-    <t>A0Y5M90101</t>
-  </si>
-  <si>
-    <t>AMORTECEDOR</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951/FS-531/FS-532/FS-532 PK-SD/FS-612/OT-510/RU-506/RU-510</t>
-  </si>
-  <si>
-    <t>A161625114</t>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A1RG105900</t>
+  </si>
+  <si>
+    <t>Guide  Part</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000/EF-101/PF-704/PF-707/PF-707M</t>
+  </si>
+  <si>
+    <t>A1RJ825100</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /4 34T</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L/EF-101</t>
+  </si>
+  <si>
+    <t>A1RJ825800</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /5 14T</t>
+  </si>
+  <si>
+    <t>A21ER70200</t>
+  </si>
+  <si>
+    <t>MB-504/MB-506/MB-510</t>
+  </si>
+  <si>
+    <t>A3PM173301</t>
+  </si>
+  <si>
+    <t>SUPORTE DA TAMPA</t>
+  </si>
+  <si>
+    <t>OC-511</t>
+  </si>
+  <si>
+    <t>A4EU117101</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951</t>
+  </si>
+  <si>
+    <t>A4EU119800</t>
+  </si>
+  <si>
+    <t>Ozone  Duct  /4</t>
+  </si>
+  <si>
+    <t>A4EU119900</t>
+  </si>
+  <si>
+    <t>A4EU252000</t>
+  </si>
+  <si>
+    <t>ROLAMENTO</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951/MB-511/OT-512/SD-501/SD-506</t>
+  </si>
+  <si>
+    <t>A4EUM75800</t>
+  </si>
+  <si>
+    <t>PAINEL DE OPERAÇÃO LCD</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS 6136P/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT 2100/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C71HC/BIZHUB PRO 951/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A4EUR70200</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA</t>
+  </si>
+  <si>
+    <t>A4EUR71Q00</t>
+  </si>
+  <si>
+    <t>CILINDRO DE JUNÇÃO</t>
+  </si>
+  <si>
+    <t>A4FC726000</t>
+  </si>
+  <si>
+    <t>Neutralizing  Brush /Outside</t>
+  </si>
+  <si>
+    <t>RU-510</t>
+  </si>
+  <si>
+    <t>A4FC726100</t>
+  </si>
+  <si>
+    <t>Neutralizing  Brush /Middle</t>
+  </si>
+  <si>
+    <t>A50U120100</t>
+  </si>
+  <si>
+    <t>Fixing  Plate</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50U120200</t>
+  </si>
+  <si>
+    <t>Cooling  Duct</t>
+  </si>
+  <si>
+    <t>A50U120700</t>
+  </si>
+  <si>
+    <t>Fixing  Plate  /2</t>
+  </si>
+  <si>
+    <t>A50U120800</t>
+  </si>
+  <si>
+    <t>Cover  Part  /Left Front</t>
+  </si>
+  <si>
+    <t>A50U122400</t>
+  </si>
+  <si>
+    <t>Protection  Cover  /2</t>
+  </si>
+  <si>
+    <t>A50U760300</t>
+  </si>
+  <si>
+    <t>CHAPA INFERIOR</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRINT C2060L/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50U765500</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50U800400</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /3 14/25T</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A50U800700</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM /6 14/25T</t>
+  </si>
+  <si>
+    <t>A50U800800</t>
+  </si>
+  <si>
+    <t>Drive  Gear  /7 29T</t>
+  </si>
+  <si>
+    <t>A50UM50200</t>
+  </si>
+  <si>
+    <t>DETECÇÃO DE FOTO</t>
+  </si>
+  <si>
+    <t>A50VH01105</t>
+  </si>
+  <si>
+    <t>CONJUNTO DA PLACA DE CONTROLE OACB</t>
+  </si>
+  <si>
+    <t>BIZHUB PRO C1060L</t>
+  </si>
+  <si>
+    <t>A55C612201</t>
+  </si>
+  <si>
+    <t>Placa de reforço</t>
+  </si>
+  <si>
+    <t>PF-703/PF-704/PF-707/PF-707M/PF-710</t>
+  </si>
+  <si>
+    <t>A5AW515900</t>
+  </si>
+  <si>
+    <t>RASPADOR</t>
+  </si>
+  <si>
+    <t>BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
+  </si>
+  <si>
+    <t>A5AW720301</t>
+  </si>
+  <si>
+    <t>MANTA DA FUSÃO</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/EF-104</t>
+  </si>
+  <si>
+    <t>A5AWR71R11</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
+  </si>
+  <si>
+    <t>A5AWR72300</t>
+  </si>
+  <si>
+    <t>SENSOR</t>
+  </si>
+  <si>
+    <t>A5AWR73011</t>
+  </si>
+  <si>
+    <t>CONUNTO DO ALIMENTADOR</t>
+  </si>
+  <si>
+    <t>A5C1R90000</t>
+  </si>
+  <si>
+    <t>FOTO INTERRUPTOR</t>
+  </si>
+  <si>
+    <t>BIZHUB 283/BIZHUB 363/BIZHUB 423/BIZHUB C258/BIZHUB C308/BIZHUB C368/BIZHUB C458/PC-214/PC-215/PF-P08/PF-P09</t>
+  </si>
+  <si>
+    <t>A797578100</t>
+  </si>
+  <si>
+    <t>BIZHUB C226/BIZHUB C227I/BIZHUB C266/BIZHUB C287</t>
+  </si>
+  <si>
+    <t>A7PU160200</t>
   </si>
   <si>
     <t>TAMPA</t>
   </si>
   <si>
-    <t>BIZHUB C224/BIZHUB C224E/BIZHUB C258/BIZHUB C284/BIZHUB C284E/BIZHUB C308/BIZHUB C368/BIZHUB C454/BIZHUB C454E/BIZHUB C458/BIZHUB C554/BIZHUB C554E</t>
-  </si>
-  <si>
-    <t>A1RF105900</t>
-  </si>
-  <si>
-    <t>BRAÇO</t>
-  </si>
-  <si>
-    <t>A1RF106000</t>
-  </si>
-  <si>
-    <t>Eixo Guia</t>
-  </si>
-  <si>
-    <t>A1RF120600</t>
-  </si>
-  <si>
-    <t>A1RF121700</t>
-  </si>
-  <si>
-    <t>SELO /1</t>
-  </si>
-  <si>
-    <t>A1RF121900</t>
-  </si>
-  <si>
-    <t>SELO /2</t>
-  </si>
-  <si>
-    <t>A1RF435201</t>
+    <t>BIZHUB C258/BIZHUB C308/BIZHUB C368</t>
+  </si>
+  <si>
+    <t>A7PUM10000</t>
+  </si>
+  <si>
+    <t>BIZHUB C226/BIZHUB C227I/BIZHUB C258/BIZHUB C266/BIZHUB C287/BIZHUB C308/BIZHUB C368</t>
+  </si>
+  <si>
+    <t>A7PUN10501</t>
+  </si>
+  <si>
+    <t>Harness /Paperfeed</t>
+  </si>
+  <si>
+    <t>BIZHUB C258/BIZHUB C308/BIZHUB C368/BIZHUB C458</t>
+  </si>
+  <si>
+    <t>A7R0940100</t>
+  </si>
+  <si>
+    <t>Label bizhub C258</t>
+  </si>
+  <si>
+    <t>BIZHUB C258</t>
+  </si>
+  <si>
+    <t>A7X5740100</t>
+  </si>
+  <si>
+    <t>ROLO DA FUSÃO</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF</t>
+  </si>
+  <si>
+    <t>A85CM10100</t>
+  </si>
+  <si>
+    <t>MOTOR DC</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065</t>
+  </si>
+  <si>
+    <t>A85CM40100</t>
+  </si>
+  <si>
+    <t>HV   Board   /3</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C6100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L</t>
+  </si>
+  <si>
+    <t>A92WR70600</t>
+  </si>
+  <si>
+    <t>UNIDADE LIMPEZA DA CORREIA TRANSFERÊNCIA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C6100</t>
+  </si>
+  <si>
+    <t>A92WR70C11</t>
+  </si>
+  <si>
+    <t>CONJUNTO AUXILIAR DE LIMPEZA</t>
+  </si>
+  <si>
+    <t>A92WR71M00</t>
+  </si>
+  <si>
+    <t>SUPORTE DE MONTAGEM</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/ACCURIOPRESS C14000/CK-101</t>
+  </si>
+  <si>
+    <t>A9CE162503</t>
+  </si>
+  <si>
+    <t>PORTA FRONTAL</t>
+  </si>
+  <si>
+    <t>RU-518/RU-518M/RU-702</t>
+  </si>
+  <si>
+    <t>A9CE722400</t>
+  </si>
+  <si>
+    <t>LIMITADOR DE REGULAGEM</t>
+  </si>
+  <si>
+    <t>A9CE724100</t>
+  </si>
+  <si>
+    <t>MOLA  /1</t>
+  </si>
+  <si>
+    <t>A9CE725800</t>
+  </si>
+  <si>
+    <t>TUBO DE REFRIGERAÇÃO /1</t>
+  </si>
+  <si>
+    <t>A9CE816800</t>
+  </si>
+  <si>
+    <t>Peça Deslizante</t>
+  </si>
+  <si>
+    <t>A9JT811600</t>
+  </si>
+  <si>
+    <t>PLACA DE PROTEÇÃO /S</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P</t>
+  </si>
+  <si>
+    <t>A9JTM33001</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE LÂMPADAS</t>
+  </si>
+  <si>
+    <t>A9JTR71200</t>
+  </si>
+  <si>
+    <t>UNIDADE DESENCURVADORA</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P</t>
+  </si>
+  <si>
+    <t>A9JTR71U00</t>
+  </si>
+  <si>
+    <t>Brake Shaft /Pin Assy</t>
+  </si>
+  <si>
+    <t>A9VE720300</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 230/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C3070L/ACCURIOPRINT C4065</t>
+  </si>
+  <si>
+    <t>A9VP719200</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C7100</t>
+  </si>
+  <si>
+    <t>A9VP759800</t>
+  </si>
+  <si>
+    <t>Paper exit  Spring</t>
+  </si>
+  <si>
+    <t>AA2J578100</t>
+  </si>
+  <si>
+    <t>BIZHUB C300I/BIZHUB C301I</t>
+  </si>
+  <si>
+    <t>AAJRH02104</t>
+  </si>
+  <si>
+    <t>PLACA PWB</t>
+  </si>
+  <si>
+    <t>BIZHUB C3300I</t>
+  </si>
+  <si>
+    <t>AC0C366901</t>
+  </si>
+  <si>
+    <t>FOLHA DE PREVENÇÃO DE DISPARO</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 400/ACCURIOPRESS C14000</t>
+  </si>
+  <si>
+    <t>AC0C500500</t>
+  </si>
+  <si>
+    <t>CONJUNTO DO ROLO</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C14000</t>
+  </si>
+  <si>
+    <t>AC0C720300</t>
+  </si>
+  <si>
+    <t>CORREIA DA FUSÃO 527L</t>
+  </si>
+  <si>
+    <t>AC0C720401</t>
+  </si>
+  <si>
+    <t>AC0C743001</t>
+  </si>
+  <si>
+    <t>AC0C751100</t>
+  </si>
+  <si>
+    <t>ARRUELA DE MOVIMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>AC0C752800</t>
   </si>
   <si>
     <t>PARAFUSO</t>
   </si>
   <si>
-    <t>A1RF435500</t>
-  </si>
-  <si>
-    <t>BUCHA</t>
-  </si>
-  <si>
-    <t>A1RF808600</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM DE PRESSÃO /5 42T</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C6100/ACCURIOPRINT C2060L/BIZHUB PRESS C1070P/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C71HC/BIZHUB PRESS C8000/BIZHUB PRO C1060L/EF-104</t>
-  </si>
-  <si>
-    <t>A1RF815801</t>
-  </si>
-  <si>
-    <t>MOLA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/BIZHUB PRESS C8000</t>
-  </si>
-  <si>
-    <t>A1RF841603</t>
-  </si>
-  <si>
-    <t>ROLO 4</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000/BIZHUB PRESS C8000/PF-704/PF-707/PF-707M</t>
-  </si>
-  <si>
-    <t>A1TV700200</t>
-  </si>
-  <si>
-    <t>FOLHA GUIA</t>
-  </si>
-  <si>
-    <t>FS-531/FS-612</t>
-  </si>
-  <si>
-    <t>A1TV700300</t>
-  </si>
-  <si>
-    <t>GUIDE  SHEET  /B</t>
-  </si>
-  <si>
-    <t>A1TV700400</t>
-  </si>
-  <si>
-    <t>GUIDE  SHEET  /C</t>
-  </si>
-  <si>
-    <t>A1TW160200</t>
-  </si>
-  <si>
-    <t>DF-622</t>
-  </si>
-  <si>
-    <t>A1UDM20000</t>
-  </si>
-  <si>
-    <t>EMBREAGEM</t>
-  </si>
-  <si>
-    <t>BIZHUB 283/BIZHUB 36/BIZHUB 363/BIZHUB 42/BIZHUB 423</t>
-  </si>
-  <si>
-    <t>A2UPN30501</t>
-  </si>
-  <si>
-    <t>CABO DE ALIMENTAÇÃO</t>
-  </si>
-  <si>
-    <t>BIZHUB 206/BIZHUB 3602P/BIZHUB 3622/BIZHUB 4020/BIZHUB 4050/BIZHUB 4051I/BIZHUB 4052/BIZHUB 4752/BIZHUB C226/BIZHUB C266/BIZHUB C3100P/BIZHUB C3110/BIZHUB C3300I/BIZHUB C3350/BIZHUB C3350I/BIZHUB C3351/BIZHUB C3351I/BIZHUB C3850/IC-318/IC-610/IC-611/IQ-520/PF-712/RU-518M</t>
-  </si>
-  <si>
-    <t>A3EPPP3603</t>
-  </si>
-  <si>
-    <t>FS-534/FS-536/FS-536SD/FS-539/FS-539 SD</t>
-  </si>
-  <si>
-    <t>A3EPPP3702</t>
-  </si>
-  <si>
-    <t>ROLETE</t>
-  </si>
-  <si>
-    <t>FS-534/FS-536/FS-536SD/FS-539/FS-539 SD/SD-511</t>
-  </si>
-  <si>
-    <t>A3EPPP3H01</t>
-  </si>
-  <si>
-    <t>A3EPPP4D04</t>
-  </si>
-  <si>
-    <t>FS-534/FS-536/FS-536SD</t>
-  </si>
-  <si>
-    <t>A3EPPP4E04</t>
-  </si>
-  <si>
-    <t>A3EPPP4G15</t>
-  </si>
-  <si>
-    <t>A3EPPP4H05</t>
-  </si>
-  <si>
-    <t>FS-534</t>
-  </si>
-  <si>
-    <t>A3EPPP4J04</t>
-  </si>
-  <si>
-    <t>A3EPPP7H00</t>
-  </si>
-  <si>
-    <t>A3EPPP8701</t>
-  </si>
-  <si>
-    <t>CORREIA</t>
-  </si>
-  <si>
-    <t>A3EPPPDC00</t>
-  </si>
-  <si>
-    <t>Holder/REAR</t>
-  </si>
-  <si>
-    <t>A3EPPPDD00</t>
-  </si>
-  <si>
-    <t>Holder/Front</t>
-  </si>
-  <si>
-    <t>A4EUR72200</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE CORPO PRINCIPAL</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>A4EUR72311</t>
-  </si>
-  <si>
-    <t>Conjunto superior do toner</t>
-  </si>
-  <si>
-    <t>A4EUR75P00</t>
-  </si>
-  <si>
-    <t>CONJUNTO DO MOTOR DE LÂMINA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>A4F3905400</t>
-  </si>
-  <si>
-    <t>ESCOVA NEUTRALIZADORA /S</t>
-  </si>
-  <si>
-    <t>FS-532/FS-532 PK-SD/OT-510/OT-512</t>
-  </si>
-  <si>
-    <t>A4F3R71511</t>
-  </si>
-  <si>
-    <t>CONJUNTO DA CORREIA</t>
-  </si>
-  <si>
-    <t>FS-532/FS-532 PK-SD</t>
-  </si>
-  <si>
-    <t>A50U221701</t>
-  </si>
-  <si>
-    <t>GUIA</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50U221800</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM  /D 40T</t>
-  </si>
-  <si>
-    <t>A50U505800</t>
-  </si>
-  <si>
-    <t>BLOCO DE VOLTAGEM /B</t>
-  </si>
-  <si>
-    <t>A50U520001</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50U525900</t>
-  </si>
-  <si>
-    <t>FILME</t>
-  </si>
-  <si>
-    <t>A50U738500</t>
-  </si>
-  <si>
-    <t>SUPORTE</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50U743200</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM 87D</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOLABEL 230/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50UR70266</t>
-  </si>
-  <si>
-    <t>UNIDADE DE REVELAÇÃO</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF/ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRESS C2070P/ACCURIOPRESS C3080P/ACCURIOPRESS C83HC/ACCURIOPRINT C2060L/ACCURIOPRINT C3070L/BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A50UR73A33</t>
-  </si>
-  <si>
-    <t>DUTO</t>
-  </si>
-  <si>
-    <t>BIZHUB PRESS C1070P/BIZHUB PRESS C71HC/BIZHUB PRO C1060L</t>
-  </si>
-  <si>
-    <t>A55C571101</t>
-  </si>
-  <si>
-    <t>PF-707/PF-707M</t>
-  </si>
-  <si>
-    <t>A55C579600</t>
-  </si>
-  <si>
-    <t>A55C612201</t>
-  </si>
-  <si>
-    <t>Placa de reforço</t>
-  </si>
-  <si>
-    <t>PF-703/PF-704/PF-707/PF-707M/PF-710</t>
-  </si>
-  <si>
-    <t>A5AW119500</t>
-  </si>
-  <si>
-    <t>Separating  Cushion</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
-  </si>
-  <si>
-    <t>A5AW165500</t>
-  </si>
-  <si>
-    <t>CHAPA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
-  </si>
-  <si>
-    <t>A5AW359800</t>
-  </si>
-  <si>
-    <t>A5AW808000</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 400/ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100/EF-104</t>
-  </si>
-  <si>
-    <t>A5AW811400</t>
-  </si>
-  <si>
-    <t>Conveyance Spring /5</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/BIZHUB PRESS C1085/BIZHUB PRESS C1100</t>
-  </si>
-  <si>
-    <t>A5AW861000</t>
-  </si>
-  <si>
-    <t>EIXO DE TRANSPORTE</t>
-  </si>
-  <si>
-    <t>A5AWR71400</t>
-  </si>
-  <si>
-    <t>CONJUNTO DO CILINDRO</t>
-  </si>
-  <si>
-    <t>A5AWR72300</t>
-  </si>
-  <si>
-    <t>SENSOR</t>
-  </si>
-  <si>
-    <t>A5AWR72E00</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE LIMPEZA AUXILIAR</t>
-  </si>
-  <si>
-    <t>A5C1562200</t>
-  </si>
-  <si>
-    <t>BIZHUB 283/BIZHUB 287/BIZHUB 36/BIZHUB 363/BIZHUB 367/BIZHUB 4051I/BIZHUB 42/BIZHUB 423/BIZHUB 654E/BIZHUB 754E/BIZHUB C221/BIZHUB C221S/BIZHUB C224/BIZHUB C224E/BIZHUB C226/BIZHUB C258/BIZHUB C266/BIZHUB C281/BIZHUB C284/BIZHUB C284E/BIZHUB C287/BIZHUB C300I/BIZHUB C308/BIZHUB C3300I/BIZHUB C3350I/BIZHUB C3351I/BIZHUB C368/BIZHUB C451/BIZHUB C452/BIZHUB C454/BIZHUB C454E/BIZHUB C550/BIZHUB C554/BIZHUB C554E/BIZHUB C652/BIZHUB C654/LU-301/PC-210/PC-214</t>
-  </si>
-  <si>
-    <t>A5C1H0200B</t>
-  </si>
-  <si>
-    <t>PLACA PWB MFP</t>
-  </si>
-  <si>
-    <t>BIZHUB C224E/BIZHUB C284E/BIZHUB C454E/BIZHUB C554E</t>
-  </si>
-  <si>
-    <t>A5C1R72011</t>
-  </si>
-  <si>
-    <t>CONJUNTO TRACAO PRINCIPAL</t>
-  </si>
-  <si>
-    <t>BIZHUB C224E/BIZHUB C284E</t>
-  </si>
-  <si>
-    <t>A6DT941800</t>
-  </si>
-  <si>
-    <t>BIZHUB C3110</t>
-  </si>
-  <si>
-    <t>A7PUM40800</t>
-  </si>
-  <si>
-    <t>PLACA DE ALTA TENSÃO</t>
-  </si>
-  <si>
-    <t>BIZHUB C258/BIZHUB C308/BIZHUB C368</t>
-  </si>
-  <si>
-    <t>A7X5720100</t>
-  </si>
-  <si>
-    <t>ROLO DA FUSÃO</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 190/BIZHUB PRESS C71CF</t>
-  </si>
-  <si>
-    <t>A85C161300</t>
-  </si>
-  <si>
-    <t>Leitor</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C2060/ACCURIOPRESS C2070/ACCURIOPRINT C2060L</t>
-  </si>
-  <si>
-    <t>A92EN10B00</t>
-  </si>
-  <si>
-    <t>Sensor Relay harness</t>
-  </si>
-  <si>
-    <t>BIZHUB C3351</t>
-  </si>
-  <si>
-    <t>A92WR70211</t>
-  </si>
-  <si>
-    <t>CAIXA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000/ACCURIOPRESS C6100/RE-101</t>
-  </si>
-  <si>
-    <t>A92WR70744</t>
-  </si>
-  <si>
-    <t>UNIDADE DE TRANSFERÊNCIA /2</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C6100</t>
-  </si>
-  <si>
-    <t>A92WR70R00</t>
-  </si>
-  <si>
-    <t>MOTOR DE LIMPEZA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C6100/IQ-520</t>
-  </si>
-  <si>
-    <t>A92WR71E00</t>
-  </si>
-  <si>
-    <t>Fusing Front Guide Assy</t>
-  </si>
-  <si>
-    <t>A93EN11412</t>
-  </si>
-  <si>
-    <t>CABO</t>
-  </si>
-  <si>
-    <t>BIZHUB 4051I/BIZHUB C3350I/BIZHUB C3351I</t>
-  </si>
-  <si>
-    <t>A9JT132500</t>
-  </si>
-  <si>
-    <t>Protection  Box</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P</t>
-  </si>
-  <si>
-    <t>A9JT135000</t>
-  </si>
-  <si>
-    <t>Insulating  Sheet</t>
-  </si>
-  <si>
-    <t>A9JT517700</t>
-  </si>
-  <si>
-    <t>Release  Cam</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100</t>
-  </si>
-  <si>
-    <t>A9JT518000</t>
-  </si>
-  <si>
-    <t>A9JTM10200</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRINT 2100/CK-101/IQ-520/LU-414/MB-511/PF-707M/TS-101</t>
-  </si>
-  <si>
-    <t>A9JTR71622</t>
-  </si>
-  <si>
-    <t>UNIDADE DE LIMPEZA DO CILINDRO</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 951</t>
-  </si>
-  <si>
-    <t>A9VE500200</t>
-  </si>
-  <si>
-    <t>CORREIA DE TRANSFERÊNCIA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT C3070L/ACCURIOPRINT C4065</t>
-  </si>
-  <si>
-    <t>A9VER71300</t>
-  </si>
-  <si>
-    <t>UNIDADE LASER</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C3080P/ACCURIOPRESS C83HC/ACCURIOPRINT C3070L</t>
-  </si>
-  <si>
-    <t>A9VP727500</t>
-  </si>
-  <si>
-    <t>Selo</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C7100</t>
-  </si>
-  <si>
-    <t>A9VP727600</t>
-  </si>
-  <si>
-    <t>A9VP727700</t>
-  </si>
-  <si>
-    <t>SELO GUIA</t>
-  </si>
-  <si>
-    <t>A9VP758000</t>
-  </si>
-  <si>
-    <t>PLACA SEPARADORA /11</t>
-  </si>
-  <si>
-    <t>A9VP758800</t>
-  </si>
-  <si>
-    <t>MOLA /2</t>
-  </si>
-  <si>
-    <t>A9VPR73022</t>
-  </si>
-  <si>
-    <t>A9VPR75400</t>
-  </si>
-  <si>
-    <t>Cleaning Motor Worm Assy</t>
-  </si>
-  <si>
-    <t>A9VPR77800</t>
-  </si>
-  <si>
-    <t>CONJUNTO REFLETOR</t>
-  </si>
-  <si>
-    <t>AA1PPP0700</t>
-  </si>
-  <si>
-    <t>COVER/FRONT</t>
-  </si>
-  <si>
-    <t>BIZHUB 4052/BIZHUB 4752</t>
-  </si>
-  <si>
-    <t>AA2J593400</t>
-  </si>
-  <si>
-    <t>PLACA REGULADORA  /F</t>
-  </si>
-  <si>
-    <t>BIZHUB C300I/BIZHUB C301I</t>
-  </si>
-  <si>
-    <t>AA2JR70322</t>
-  </si>
-  <si>
-    <t>UNIDADE DE FUSÃO (120V)</t>
-  </si>
-  <si>
-    <t>BIZHUB C300I</t>
-  </si>
-  <si>
-    <t>AA2JR70333</t>
-  </si>
-  <si>
-    <t>AC0C720300</t>
-  </si>
-  <si>
-    <t>CORREIA DA FUSÃO 527L</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS C14000</t>
-  </si>
-  <si>
-    <t>AC0C835400</t>
-  </si>
-  <si>
-    <t>Slide  Bushing /1</t>
-  </si>
-  <si>
-    <t>AC0C841300</t>
-  </si>
-  <si>
-    <t>AC0C841400</t>
-  </si>
-  <si>
-    <t>AC0CM50200</t>
-  </si>
-  <si>
-    <t>Photointerrupter  /S</t>
-  </si>
-  <si>
-    <t>ACCURIOLABEL 400/ACCURIOPRESS C14000</t>
-  </si>
-  <si>
-    <t>AC0CR70622</t>
-  </si>
-  <si>
-    <t>CONJUNTO CAIXA COLETORA</t>
-  </si>
-  <si>
-    <t>DD1A012A30</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE FUSÃO</t>
-  </si>
-  <si>
-    <t>MFBP</t>
-  </si>
-  <si>
-    <t>MFP Non-HW BW: Part</t>
-  </si>
-  <si>
-    <t>V500020030</t>
-  </si>
-  <si>
-    <t>GARRA</t>
-  </si>
-  <si>
-    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRESS C6000/BIZHUB PRESS C7000/BIZHUB PRESS C7000P/BIZHUB PRESS C70HC/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951/BIZHUB PRO C6501/BIZHUB PRO C6501P/HT-503/HT-506/PF-602</t>
+    <t>AC0CR70600</t>
+  </si>
+  <si>
+    <t>CONJ CAIXA COLETORA</t>
+  </si>
+  <si>
+    <t>AC0CR70611</t>
+  </si>
+  <si>
+    <t>AC0CR70700</t>
+  </si>
+  <si>
+    <t>CONJUNTO DA UNIDADE DE COLETA DE TONER</t>
+  </si>
+  <si>
+    <t>AC0CR77900</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE FOLHA DISPERSÃO /2</t>
+  </si>
+  <si>
+    <t>AC0CR79800</t>
+  </si>
+  <si>
+    <t>CONJUNTO DO FILTRO</t>
+  </si>
+  <si>
+    <t>AC57M50001</t>
+  </si>
+  <si>
+    <t>SENSOR DE TEMPERATURA /1</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS C4080/ACCURIOPRINT C4065</t>
+  </si>
+  <si>
+    <t>AC57R70111</t>
+  </si>
+  <si>
+    <t>ACMEM15100</t>
+  </si>
+  <si>
+    <t>IC-610/IC-611</t>
+  </si>
+  <si>
+    <t>D000BE001</t>
+  </si>
+  <si>
+    <t>VENTILADOR PRINCIPAL BROTHER HLL6402</t>
+  </si>
+  <si>
+    <t>SP00-0043</t>
+  </si>
+  <si>
+    <t>TERMOSTATO 3</t>
+  </si>
+  <si>
+    <t>7075/7085/ACCURIOPRESS 6136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1050/BIZHUB PRO 1050E/BIZHUB PRO 1050EP/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 920/BIZHUB PRO 951/FORCE85</t>
+  </si>
+  <si>
+    <t>V217060003</t>
+  </si>
+  <si>
+    <t>E ring</t>
+  </si>
+  <si>
+    <t>ACCURIOLABEL 230/ACCURIOLABEL 400/ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRESS C14000/ACCURIOPRESS C3080P/ACCURIOPRESS C4080/ACCURIOPRESS C6100/ACCURIOPRESS C7100/ACCURIOPRESS C83HC/ACCURIOPRINT 2100/ACCURIOPRINT C3070L/ACCURIOPRINT C4065/BIZHUB 164/BIZHUB 184/BIZHUB C227I/BIZHUB C300I/BIZHUB C301I/BIZHUB PRESS C1085/BIZHUB PRESS C1100/DF-713/FS-519/FS-539/FS-539 SD/IQ-520/MB-510/MB-511/MK-761/OT-512/PC-216/PF-710/PF-712/PF-812/RU-518/RU-518M/RU-702</t>
+  </si>
+  <si>
+    <t>V217100050</t>
+  </si>
+  <si>
+    <t>ACCURIOPRESS 6136P/ACCURIOPRESS 7136P/ACCURIOPRINT 2100/BIZHUB PRESS 1250/BIZHUB PRESS 1250P/BIZHUB PRO 1051/BIZHUB PRO 1200/BIZHUB PRO 1200P/BIZHUB PRO 951/FD-503/PB-503/PF-703/SD-506</t>
   </si>
   <si>
     <t>Material</t>
@@ -1162,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,51 +1093,51 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" bestFit="1" width="20" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="35" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="42" customWidth="1"/>
     <col min="3" max="3" bestFit="1" width="15" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="27" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="9" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="21" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="22" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="14" customWidth="1"/>
     <col min="8" max="8" bestFit="1" width="24" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="13" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="23" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="650" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="797" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1302,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -1320,15 +1242,15 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1355,15 +1277,15 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1390,15 +1312,15 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1425,15 +1347,15 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1460,15 +1382,15 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1495,15 +1417,15 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1530,15 +1452,15 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1565,15 +1487,15 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1600,15 +1522,15 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1635,15 +1557,15 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1670,15 +1592,15 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1705,15 +1627,15 @@
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1740,15 +1662,15 @@
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1775,15 +1697,15 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1810,15 +1732,15 @@
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1845,15 +1767,15 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1880,15 +1802,15 @@
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1915,15 +1837,15 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1950,15 +1872,15 @@
         <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1985,15 +1907,15 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2020,15 +1942,15 @@
         <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2084,21 +2006,21 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2125,15 +2047,15 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2160,15 +2082,15 @@
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2195,15 +2117,15 @@
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2230,15 +2152,15 @@
         <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2265,86 +2187,86 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
         <v>95</v>
       </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -2370,15 +2292,15 @@
         <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2405,15 +2327,15 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2440,15 +2362,15 @@
         <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2475,42 +2397,42 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" t="s">
         <v>105</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2518,42 +2440,42 @@
         <v>106</v>
       </c>
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
         <v>107</v>
       </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" t="s">
-        <v>6</v>
-      </c>
       <c r="J39" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2580,15 +2502,15 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2615,15 +2537,15 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2650,51 +2572,51 @@
         <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" t="s">
         <v>118</v>
-      </c>
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
         <v>121</v>
       </c>
-      <c r="B44" t="s">
-        <v>122</v>
-      </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -2720,42 +2642,42 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
         <v>123</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2763,7 +2685,7 @@
         <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2790,15 +2712,15 @@
         <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2825,15 +2747,15 @@
         <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2860,15 +2782,15 @@
         <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2895,15 +2817,15 @@
         <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2930,15 +2852,15 @@
         <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2965,15 +2887,15 @@
         <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -3000,15 +2922,15 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3035,15 +2957,15 @@
         <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3070,15 +2992,15 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3105,50 +3027,50 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
         <v>149</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -3175,15 +3097,15 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -3210,15 +3132,15 @@
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -3245,15 +3167,15 @@
         <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -3280,15 +3202,15 @@
         <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -3315,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="K61" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3323,7 +3245,7 @@
         <v>163</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -3350,15 +3272,15 @@
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -3390,10 +3312,10 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -3420,15 +3342,15 @@
         <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -3455,15 +3377,15 @@
         <v>6</v>
       </c>
       <c r="K65" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3490,50 +3412,50 @@
         <v>6</v>
       </c>
       <c r="K66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s">
         <v>170</v>
-      </c>
-      <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I67" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -3560,15 +3482,15 @@
         <v>6</v>
       </c>
       <c r="K68" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -3595,15 +3517,15 @@
         <v>6</v>
       </c>
       <c r="K69" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -3630,15 +3552,15 @@
         <v>6</v>
       </c>
       <c r="K70" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -3665,15 +3587,15 @@
         <v>6</v>
       </c>
       <c r="K71" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -3700,15 +3622,15 @@
         <v>6</v>
       </c>
       <c r="K72" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -3735,15 +3657,15 @@
         <v>6</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -3770,15 +3692,15 @@
         <v>6</v>
       </c>
       <c r="K74" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -3805,15 +3727,15 @@
         <v>6</v>
       </c>
       <c r="K75" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -3840,15 +3762,15 @@
         <v>6</v>
       </c>
       <c r="K76" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -3875,15 +3797,15 @@
         <v>6</v>
       </c>
       <c r="K77" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -3910,15 +3832,15 @@
         <v>6</v>
       </c>
       <c r="K78" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -3945,15 +3867,15 @@
         <v>6</v>
       </c>
       <c r="K79" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -3980,15 +3902,15 @@
         <v>6</v>
       </c>
       <c r="K80" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -4015,15 +3937,15 @@
         <v>6</v>
       </c>
       <c r="K81" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -4050,15 +3972,15 @@
         <v>6</v>
       </c>
       <c r="K82" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -4085,15 +4007,15 @@
         <v>6</v>
       </c>
       <c r="K83" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -4120,15 +4042,15 @@
         <v>6</v>
       </c>
       <c r="K84" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -4155,15 +4077,15 @@
         <v>6</v>
       </c>
       <c r="K85" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B86" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -4190,15 +4112,15 @@
         <v>6</v>
       </c>
       <c r="K86" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -4225,15 +4147,15 @@
         <v>6</v>
       </c>
       <c r="K87" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -4260,15 +4182,15 @@
         <v>6</v>
       </c>
       <c r="K88" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -4295,15 +4217,15 @@
         <v>6</v>
       </c>
       <c r="K89" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -4330,15 +4252,15 @@
         <v>6</v>
       </c>
       <c r="K90" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B91" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -4365,15 +4287,15 @@
         <v>6</v>
       </c>
       <c r="K91" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -4400,15 +4322,15 @@
         <v>6</v>
       </c>
       <c r="K92" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -4435,15 +4357,15 @@
         <v>6</v>
       </c>
       <c r="K93" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -4470,15 +4392,15 @@
         <v>6</v>
       </c>
       <c r="K94" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -4505,15 +4427,15 @@
         <v>6</v>
       </c>
       <c r="K95" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -4540,15 +4462,15 @@
         <v>6</v>
       </c>
       <c r="K96" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B97" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -4575,15 +4497,15 @@
         <v>6</v>
       </c>
       <c r="K97" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -4610,15 +4532,15 @@
         <v>6</v>
       </c>
       <c r="K98" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -4645,15 +4567,15 @@
         <v>6</v>
       </c>
       <c r="K99" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -4680,15 +4602,15 @@
         <v>6</v>
       </c>
       <c r="K100" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -4715,15 +4637,15 @@
         <v>6</v>
       </c>
       <c r="K101" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -4750,15 +4672,15 @@
         <v>6</v>
       </c>
       <c r="K102" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -4785,15 +4707,15 @@
         <v>6</v>
       </c>
       <c r="K103" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -4820,15 +4742,15 @@
         <v>6</v>
       </c>
       <c r="K104" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -4855,15 +4777,15 @@
         <v>6</v>
       </c>
       <c r="K105" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
@@ -4890,15 +4812,15 @@
         <v>6</v>
       </c>
       <c r="K106" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B107" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
@@ -4925,15 +4847,15 @@
         <v>6</v>
       </c>
       <c r="K107" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
@@ -4960,15 +4882,15 @@
         <v>6</v>
       </c>
       <c r="K108" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
@@ -4995,15 +4917,15 @@
         <v>6</v>
       </c>
       <c r="K109" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B110" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
@@ -5030,15 +4952,15 @@
         <v>6</v>
       </c>
       <c r="K110" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -5065,15 +4987,15 @@
         <v>6</v>
       </c>
       <c r="K111" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>133</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -5100,15 +5022,15 @@
         <v>6</v>
       </c>
       <c r="K112" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B113" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s">
         <v>2</v>
@@ -5135,15 +5057,15 @@
         <v>6</v>
       </c>
       <c r="K113" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
@@ -5170,15 +5092,15 @@
         <v>6</v>
       </c>
       <c r="K114" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
@@ -5205,15 +5127,15 @@
         <v>6</v>
       </c>
       <c r="K115" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B116" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s">
         <v>2</v>
@@ -5240,15 +5162,15 @@
         <v>6</v>
       </c>
       <c r="K116" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C117" t="s">
         <v>2</v>
@@ -5275,15 +5197,15 @@
         <v>6</v>
       </c>
       <c r="K117" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -5310,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="K118" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5345,16 +5267,16 @@
         <v>6</v>
       </c>
       <c r="K119" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" t="s">
         <v>300</v>
       </c>
-      <c r="B120" t="s">
-        <v>1</v>
-      </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
@@ -5380,42 +5302,42 @@
         <v>6</v>
       </c>
       <c r="K120" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" t="s">
+        <v>6</v>
+      </c>
+      <c r="I121" t="s">
+        <v>6</v>
+      </c>
+      <c r="J121" t="s">
+        <v>6</v>
+      </c>
+      <c r="K121" t="s">
         <v>301</v>
-      </c>
-      <c r="B121" t="s">
-        <v>302</v>
-      </c>
-      <c r="C121" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" t="s">
-        <v>6</v>
-      </c>
-      <c r="H121" t="s">
-        <v>6</v>
-      </c>
-      <c r="I121" t="s">
-        <v>6</v>
-      </c>
-      <c r="J121" t="s">
-        <v>6</v>
-      </c>
-      <c r="K121" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5423,34 +5345,34 @@
         <v>303</v>
       </c>
       <c r="B122" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" t="s">
+        <v>6</v>
+      </c>
+      <c r="J122" t="s">
+        <v>6</v>
+      </c>
+      <c r="K122" t="s">
         <v>304</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" t="s">
-        <v>6</v>
-      </c>
-      <c r="I122" t="s">
-        <v>6</v>
-      </c>
-      <c r="J122" t="s">
-        <v>6</v>
-      </c>
-      <c r="K122" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5485,7 +5407,7 @@
         <v>6</v>
       </c>
       <c r="K123" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5493,7 +5415,7 @@
         <v>307</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="C124" t="s">
         <v>2</v>
@@ -5520,15 +5442,15 @@
         <v>6</v>
       </c>
       <c r="K124" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C125" t="s">
         <v>2</v>
@@ -5555,12 +5477,12 @@
         <v>6</v>
       </c>
       <c r="K125" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B126" t="s">
         <v>311</v>
@@ -5590,427 +5512,7 @@
         <v>6</v>
       </c>
       <c r="K126" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" t="s">
-        <v>312</v>
-      </c>
-      <c r="B127" t="s">
-        <v>313</v>
-      </c>
-      <c r="C127" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" t="s">
-        <v>6</v>
-      </c>
-      <c r="H127" t="s">
-        <v>6</v>
-      </c>
-      <c r="I127" t="s">
-        <v>6</v>
-      </c>
-      <c r="J127" t="s">
-        <v>6</v>
-      </c>
-      <c r="K127" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" t="s">
-        <v>315</v>
-      </c>
-      <c r="B128" t="s">
-        <v>316</v>
-      </c>
-      <c r="C128" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" t="s">
-        <v>4</v>
-      </c>
-      <c r="F128" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" t="s">
-        <v>6</v>
-      </c>
-      <c r="H128" t="s">
-        <v>6</v>
-      </c>
-      <c r="I128" t="s">
-        <v>6</v>
-      </c>
-      <c r="J128" t="s">
-        <v>6</v>
-      </c>
-      <c r="K128" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" t="s">
-        <v>318</v>
-      </c>
-      <c r="B129" t="s">
-        <v>319</v>
-      </c>
-      <c r="C129" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" t="s">
-        <v>3</v>
-      </c>
-      <c r="E129" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" t="s">
-        <v>6</v>
-      </c>
-      <c r="H129" t="s">
-        <v>6</v>
-      </c>
-      <c r="I129" t="s">
-        <v>6</v>
-      </c>
-      <c r="J129" t="s">
-        <v>6</v>
-      </c>
-      <c r="K129" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" t="s">
-        <v>321</v>
-      </c>
-      <c r="B130" t="s">
-        <v>319</v>
-      </c>
-      <c r="C130" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>6</v>
-      </c>
-      <c r="H130" t="s">
-        <v>6</v>
-      </c>
-      <c r="I130" t="s">
-        <v>6</v>
-      </c>
-      <c r="J130" t="s">
-        <v>6</v>
-      </c>
-      <c r="K130" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" t="s">
-        <v>322</v>
-      </c>
-      <c r="B131" t="s">
-        <v>323</v>
-      </c>
-      <c r="C131" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>3</v>
-      </c>
-      <c r="E131" t="s">
-        <v>4</v>
-      </c>
-      <c r="F131" t="s">
-        <v>5</v>
-      </c>
-      <c r="G131" t="s">
-        <v>6</v>
-      </c>
-      <c r="H131" t="s">
-        <v>6</v>
-      </c>
-      <c r="I131" t="s">
-        <v>6</v>
-      </c>
-      <c r="J131" t="s">
-        <v>6</v>
-      </c>
-      <c r="K131" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" t="s">
-        <v>325</v>
-      </c>
-      <c r="B132" t="s">
-        <v>326</v>
-      </c>
-      <c r="C132" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" t="s">
-        <v>3</v>
-      </c>
-      <c r="E132" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" t="s">
-        <v>5</v>
-      </c>
-      <c r="G132" t="s">
-        <v>6</v>
-      </c>
-      <c r="H132" t="s">
-        <v>6</v>
-      </c>
-      <c r="I132" t="s">
-        <v>6</v>
-      </c>
-      <c r="J132" t="s">
-        <v>6</v>
-      </c>
-      <c r="K132" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" t="s">
-        <v>327</v>
-      </c>
-      <c r="B133" t="s">
-        <v>18</v>
-      </c>
-      <c r="C133" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" t="s">
-        <v>4</v>
-      </c>
-      <c r="F133" t="s">
-        <v>5</v>
-      </c>
-      <c r="G133" t="s">
-        <v>6</v>
-      </c>
-      <c r="H133" t="s">
-        <v>6</v>
-      </c>
-      <c r="I133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J133" t="s">
-        <v>6</v>
-      </c>
-      <c r="K133" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" t="s">
-        <v>328</v>
-      </c>
-      <c r="B134" t="s">
-        <v>18</v>
-      </c>
-      <c r="C134" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" t="s">
-        <v>4</v>
-      </c>
-      <c r="F134" t="s">
-        <v>5</v>
-      </c>
-      <c r="G134" t="s">
-        <v>6</v>
-      </c>
-      <c r="H134" t="s">
-        <v>6</v>
-      </c>
-      <c r="I134" t="s">
-        <v>6</v>
-      </c>
-      <c r="J134" t="s">
-        <v>6</v>
-      </c>
-      <c r="K134" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" t="s">
-        <v>329</v>
-      </c>
-      <c r="B135" t="s">
-        <v>330</v>
-      </c>
-      <c r="C135" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>5</v>
-      </c>
-      <c r="G135" t="s">
-        <v>6</v>
-      </c>
-      <c r="H135" t="s">
-        <v>6</v>
-      </c>
-      <c r="I135" t="s">
-        <v>6</v>
-      </c>
-      <c r="J135" t="s">
-        <v>6</v>
-      </c>
-      <c r="K135" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" t="s">
-        <v>332</v>
-      </c>
-      <c r="B136" t="s">
-        <v>333</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" t="s">
-        <v>4</v>
-      </c>
-      <c r="F136" t="s">
-        <v>5</v>
-      </c>
-      <c r="G136" t="s">
-        <v>6</v>
-      </c>
-      <c r="H136" t="s">
-        <v>6</v>
-      </c>
-      <c r="I136" t="s">
-        <v>6</v>
-      </c>
-      <c r="J136" t="s">
-        <v>6</v>
-      </c>
-      <c r="K136" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" t="s">
-        <v>334</v>
-      </c>
-      <c r="B137" t="s">
-        <v>335</v>
-      </c>
-      <c r="C137" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" t="s">
-        <v>336</v>
-      </c>
-      <c r="F137" t="s">
-        <v>337</v>
-      </c>
-      <c r="G137" t="s">
-        <v>6</v>
-      </c>
-      <c r="H137" t="s">
-        <v>6</v>
-      </c>
-      <c r="I137" t="s">
-        <v>6</v>
-      </c>
-      <c r="J137" t="s">
-        <v>6</v>
-      </c>
-      <c r="K137" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" t="s">
-        <v>338</v>
-      </c>
-      <c r="B138" t="s">
-        <v>339</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" t="s">
-        <v>3</v>
-      </c>
-      <c r="E138" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" t="s">
-        <v>6</v>
-      </c>
-      <c r="H138" t="s">
-        <v>6</v>
-      </c>
-      <c r="I138" t="s">
-        <v>6</v>
-      </c>
-      <c r="J138" t="s">
-        <v>6</v>
-      </c>
-      <c r="K138" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -6259,9 +5761,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A92CCB51-A418-4C43-BA60-9310F771E4AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4CACC2B-425B-4693-BA40-6E44675FC487}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5622022-2783-449E-B1C4-881667B5DB59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BF7C37-B243-4676-849B-6465E005DB4C}"/>
 </file>